--- a/학습자료/단답형/국어_복습_속담제거.xlsx
+++ b/학습자료/단답형/국어_복습_속담제거.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D475"/>
+  <dimension ref="A1:D494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,7 +644,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>호질기의, 「병(病)을 숨기고 의원(醫員)에게 보이기를 꺼린다.」는 뜻으로, 「자신(自身)의 결점(缺點)을 감추고 남의 충고(忠告)를 듣지 않음.」을 비유(比喩ㆍ譬喩)하는 말.</t>
+          <t>호질기의, 「병(病)을 숨기고 의원(醫員)에게 보이기를 꺼린다」는 뜻으로, 「자신(自身)의 결점(缺點)을 감추고 남의 충고(忠告)를 듣지 않음」을 비유(比喩ㆍ譬喩)하는 말</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>장두노미, 「머리는 감추었는데 꼬리는 드러나 있다.」는 뜻으로, 「진실(眞實)을 숨겨두려고 하지만 거짓의 실마리는 이미 드러나 있다.」는 의미(意味). 속으로 감추면서 들통 날까봐 전전긍긍(戰戰兢兢)하는 태도(態度)를 빗대기도 함.</t>
+          <t>장두노미, 「머리는 감추었는데 꼬리는 드러나 있다」는 뜻으로, 「진실(眞實)을 숨겨두려고 하지만 거짓의 실마리는 이미 드러나 있다」는 의미(意味) 속으로 감추면서 들통 날까봐 전전긍긍(戰戰兢兢)하는 태도(態度)를 빗대기도 함</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>도행역시, 「차례(次例)를 거꾸로 시행(施行)한다.」는 뜻으로, 곧 도리(道理)에 순종(順從)하지 않고 일을 행(行)하며 상도(常道)를 벗어나서 일을 억지로 함을 뜻.</t>
+          <t>도행역시, 「차례(次例)를 거꾸로 시행(施行)한다」는 뜻으로, 곧 도리(道理)에 순종(順從)하지 않고 일을 행(行)하며 상도(常道)를 벗어나서 일을 억지로 함을 뜻</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>파사현정, 「불교(佛敎)에서, 부처의 가르침에 어긋나는 사악(邪惡)한 도리(道理)를 깨뜨리고 바른 도리(道理)를 드러낸다.」는 뜻으로, 그릇된 생각을 버리고 올바른 도리(道理)를 행(行)함을 비유(比喩ㆍ譬喩)해 이르는 말.</t>
+          <t>파사현정, 「불교(佛敎)에서, 부처의 가르침에 어긋나는 사악(邪惡)한 도리(道理)를 깨뜨리고 바른 도리(道理)를 드러낸다」는 뜻으로, 그릇된 생각을 버리고 올바른 도리(道理)를 행(行)함을 비유(比喩ㆍ譬喩)해 이르는 말</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>속수무책,「손을 묶인 듯이 어찌 할 방책(方策)이 없어 꼼짝 못하게 된다.」는 뜻으로, 뻔히 보면서 어찌할 바를 모르고 꼼짝 못한다는 뜻.</t>
+          <t>속수무책,「손을 묶인 듯이 어찌 할 방책(方策)이 없어 꼼짝 못하게 된다」는 뜻으로, 뻔히 보면서 어찌할 바를 모르고 꼼짝 못한다는 뜻</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">용사비등,「용과 뱀이 하늘로 날아오르다.」는 뜻으로, 살아 움직이듯 매우 활기찬 글씨 </t>
+          <t xml:space="preserve">용사비등,「용과 뱀이 하늘로 날아오르다」는 뜻으로, 살아 움직이듯 매우 활기찬 글씨 </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>화사첨족, 「뱀을 그리고 발을 더한다.」는 뜻으로, 하지 않아도 될 일을 하거나 필요(必要) 이상(以上)으로 쓸데 없는 일을 하여 도리어 실패(失敗)함.</t>
+          <t>화사첨족, 「뱀을 그리고 발을 더한다」는 뜻으로, 하지 않아도 될 일을 하거나 필요(必要) 이상(以上)으로 쓸데 없는 일을 하여 도리어 실패(失敗)함</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">침소봉대,「바늘 만한 것을 몽둥이 만하다고 말함.」이란 뜻으로, 곧, 작은 일을 크게 과장(誇張)하여 말함을 이름. </t>
+          <t xml:space="preserve">침소봉대,「바늘 만한 것을 몽둥이 만하다고 말함」이란 뜻으로, 곧, 작은 일을 크게 과장(誇張)하여 말함을 이름 </t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3769,7 +3769,7 @@
       <c r="B152" t="inlineStr">
         <is>
           <t>견마지성, 「개나 말의 정성(精誠)」이라는 뜻으로, 임금이나 나라에 바치는 정성(精誠), 
-남에게 「자기(自己)가 바치는 정성(精誠)」을 아주 겸손(謙遜)하게 일컫는 말.</t>
+남에게 「자기(自己)가 바치는 정성(精誠)」을 아주 겸손(謙遜)하게 일컫는 말</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3879,7 +3879,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t xml:space="preserve">반포지효, 「까마귀 새끼가 자란 뒤에 늙은 어미에게 먹이를 물어다 주는 효성(孝誠)」이라는 뜻으로, 자식(子息)이 자라서 부모(父母)를 봉양(奉養)함. </t>
+          <t xml:space="preserve">반포지효, 「까마귀 새끼가 자란 뒤에 늙은 어미에게 먹이를 물어다 주는 효성(孝誠)」이라는 뜻으로, 자식(子息)이 자라서 부모(父母)를 봉양(奉養)함 </t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>간어제초, 「제(齊)나라와 초(楚)나라 사이」라는 뜻으로, 약(弱)한 자(者)가 강(強)한 자(者)들 사이에 끼여 괴로움을 받음을 이르는 말.</t>
+          <t>간어제초, 「제(齊)나라와 초(楚)나라 사이」라는 뜻으로, 약(弱)한 자(者)가 강(強)한 자(者)들 사이에 끼여 괴로움을 받음을 이르는 말</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3923,7 +3923,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>개세지재, 세상(世上)을 마음대로 다스릴 만한 뛰어난 재기(才氣). 또는 그러한 재기(才氣)를 가진 사람.</t>
+          <t>개세지재, 세상(世上)을 마음대로 다스릴 만한 뛰어난 재기(才氣) 또는 그러한 재기(才氣)를 가진 사람</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -4116,8 +4116,8 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>1. 아주 귀찮게 구는 말이나 행동을 싫증 내지 않고 잘 받아 주는 일.
-2. [민속 ] 토속 신앙에서, 무당이 굿을 할 때 한 사람이 소리하면 다른 사람이 따라서 같은 소리를 받아 하는 일.</t>
+          <t>1) 아주 귀찮게 구는 말이나 행동을 싫증 내지 않고 잘 받아 주는 일
+2 [민속 ] 토속 신앙에서, 무당이 굿을 할 때 한 사람이 소리하면 다른 사람이 따라서 같은 소리를 받아 하는 일</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4139,7 +4139,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>자기만 혼자 잘나고 영악한 체하는 사람을 낮잡아 이르는 말.</t>
+          <t>자기만 혼자 잘나고 영악한 체하는 사람을 낮잡아 이르는 말</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4161,7 +4161,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>이유 없이 남의 말에 반대하기를 좋아하는 사람을 얕잡아 이르는 말.</t>
+          <t>이유 없이 남의 말에 반대하기를 좋아하는 사람을 얕잡아 이르는 말</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4183,8 +4183,8 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>1. 안쪽으로 오목하게 들어가거나 주름이 잡힌 물건.
-2. 마음씨가 바르지 못한 사람을 비유적으로 이르는 말.</t>
+          <t>1) 안쪽으로 오목하게 들어가거나 주름이 잡힌 물건
+2 마음씨가 바르지 못한 사람을 비유적으로 이르는 말</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4875,7 +4875,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>붕우유신, 오륜(五倫)의 하나. 친구(親舊) 사이의 도리(道理)는 믿음에 있음.</t>
+          <t>붕우유신, 오륜(五倫)의 하나 친구(親舊) 사이의 도리(道理)는 믿음에 있음</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>장유유서, 오륜(五倫)의 하나. 어른과 어린이 사이에는 순서(順序)와 질서(秩序)가 있음.</t>
+          <t>장유유서, 오륜(五倫)의 하나 어른과 어린이 사이에는 순서(順序)와 질서(秩序)가 있음</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>군신유의, 오륜(五倫)의 하나. 임금과 신하(臣下) 사이에 의리(義理)가 있어야 함.</t>
+          <t>군신유의, 오륜(五倫)의 하나 임금과 신하(臣下) 사이에 의리(義理)가 있어야 함</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -4941,7 +4941,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>부부유별, 오륜(五倫)의 하나. 「남편(男便)과 아내는 분별(分別)이 있어야 한다.」는 뜻으로, 부부(夫婦) 사이에는 인륜상(人倫上) 각각(各各) 직분(職分)이 있어 서로 침범(侵犯)하지 못할 구별(區別)이 있음.</t>
+          <t>부부유별, 오륜(五倫)의 하나 「남편(男便)과 아내는 분별(分別)이 있어야 한다」는 뜻으로, 부부(夫婦) 사이에는 인륜상(人倫上) 각각(各各) 직분(職分)이 있어 서로 침범(侵犯)하지 못할 구별(區別)이 있음</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -4963,7 +4963,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>부자유친, 오륜(五倫)의 하나. 아버지와 아들 사이의 도(道)는 친애(親愛)에 있</t>
+          <t>부자유친, 오륜(五倫)의 하나 아버지와 아들 사이의 도(道)는 친애(親愛)에 있</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -4995,7 +4995,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -5039,7 +5039,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -5083,7 +5083,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -5105,7 +5105,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -5127,7 +5127,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -5149,7 +5149,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -5237,7 +5237,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -5259,7 +5259,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -5303,7 +5303,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -5347,7 +5347,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -5369,7 +5369,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -5391,7 +5391,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -5435,7 +5435,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -5457,7 +5457,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -5479,7 +5479,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -5501,7 +5501,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>복합어</t>
         </is>
       </c>
     </row>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>화이부동 , 「남과 사이 좋게 지내되 의(義)를 굽혀 좇지는 아니한다.」는 뜻으로, 곧, 남과 화목(和睦)하게 지내지만 자기(自己)의 중심(中心)과 원칙(原則)을 잃지 않음.</t>
+          <t>화이부동 , 「남과 사이 좋게 지내되 의(義)를 굽혀 좇지는 아니한다」는 뜻으로, 곧, 남과 화목(和睦)하게 지내지만 자기(自己)의 중심(中心)과 원칙(原則)을 잃지 않음</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -6965,7 +6965,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>일사불란, 「한 오라기의 실도 흐트러지지 않았다.」는 뜻으로, 질서(秩序)나 체계(體系) 따위가 잘 잡혀 있어서 조금도 흐트러짐이 없음을 이르는 말.</t>
+          <t>일사불란, 「한 오라기의 실도 흐트러지지 않았다」는 뜻으로, 질서(秩序)나 체계(體系) 따위가 잘 잡혀 있어서 조금도 흐트러짐이 없음을 이르는 말</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -6987,7 +6987,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>곡복사신, 밥 먹고 옷 입는 일.</t>
+          <t>곡복사신, 밥 먹고 옷 입는 일</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -7075,7 +7075,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>우이독경, 「쇠귀에 경 읽기」란 뜻으로, 우둔(愚鈍)한 사람은 아무리 가르치고 일러주어도 알아듣지 못함을 비유(比喩ㆍ譬喩)하여 이르는 말.</t>
+          <t>우이독경, 「쇠귀에 경 읽기」란 뜻으로, 우둔(愚鈍)한 사람은 아무리 가르치고 일러주어도 알아듣지 못함을 비유(比喩ㆍ譬喩)하여 이르는 말</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -7097,7 +7097,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>경국지사, 나랏일을 다스릴 만한 사람.</t>
+          <t>경국지사, 나랏일을 다스릴 만한 사람</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -7141,7 +7141,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>첩경, 지름길. 멀리 돌지 않고 가깝게 질러 통(通)하는 길.</t>
+          <t>첩경, 지름길 멀리 돌지 않고 가깝게 질러 통(通)하는 길</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -7295,11 +7295,9 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>한강투석, 「한강(漢江)에 아무리 돌을 많이 집어 넣어도 메울 수 없다.」는 뜻으로,
-1.
-아무리 도와도 보람이 없는 것.
-2.
-아무리 투자(投資)를 하거나 애를 써도 보람이 없음을 이르는 말.</t>
+          <t>한강투석, 「한강(漢江)에 아무리 돌을 많이 집어 넣어도 메울 수 없다」는 뜻으로,
+1) 아무리 도와도 보람이 없는 것
+2) 아무리 투자(投資)를 하거나 애를 써도 보람이 없음을 이르는 말</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -7365,7 +7363,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>맥수지탄, 「나무가 고요하고자 하나 바람이 그치지 않는다.」는 뜻으로, 부모(父母)에게 효도(孝道)를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말.</t>
+          <t>맥수지탄, 「나무가 고요하고자 하나 바람이 그치지 않는다」는 뜻으로, 부모(父母)에게 효도(孝道)를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -7387,7 +7385,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>풍수지탄, 「나무가 고요하고자 하나 바람이 그치지 않는다.」는 뜻으로, 부모(父母)에게 효도(孝道)를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말.</t>
+          <t>풍수지탄, 「나무가 고요하고자 하나 바람이 그치지 않는다」는 뜻으로, 부모(父母)에게 효도(孝道)를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -7409,11 +7407,9 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>망양지탄, 「달아난 양(羊)을 찾다가 여러 갈래 길에 이르러 길을 잃었다.」는 뜻으로,
-1.
-학문(學問)의 길이 여러 갈래로 나뉘어져 있어 진리(眞理)를 찾기 어려움.
-2.
-방침(方針)이 많아 할 바를 모르게 됨.</t>
+          <t>망양지탄, 「달아난 양(羊)을 찾다가 여러 갈래 길에 이르러 길을 잃었다」는 뜻으로,
+1) 학문(學問)의 길이 여러 갈래로 나뉘어져 있어 진리(眞理)를 찾기 어려움
+2) 방침(方針)이 많아 할 바를 모르게 됨</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -7436,12 +7432,9 @@
       <c r="B319" t="inlineStr">
         <is>
           <t>망양지탄, 
-1.
-「넓은 바다를 보고 탄식(歎息)한다.」는 뜻으로,
-2.
-남의 원대(遠大)함에 감탄(感歎ㆍ感嘆)하고, 나의 미흡(未洽)함을 부끄러워함의 비유(比喩ㆍ譬喩).
-3.
-제힘이 미치지 못할 때 하는 탄식(歎息).</t>
+1) 「넓은 바다를 보고 탄식(歎息)한다」는 뜻으로,
+2) 남의 원대(遠大)함에 감탄(感歎ㆍ感嘆)하고, 나의 미흡(未洽)함을 부끄러워함의 비유(比喩ㆍ譬喩)
+3) 제힘이 미치지 못할 때 하는 탄식(歎息)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -7463,7 +7456,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>만시지탄, 「때늦은 한탄(恨歎)」이라는 뜻으로, 「시기(時期)가 늦어 기회(機會)를 놓친 것이 원통(寃痛)해서 탄식(歎息)함.」을 이르는 말.</t>
+          <t>만시지탄, 「때늦은 한탄(恨歎)」이라는 뜻으로, 「시기(時期)가 늦어 기회(機會)를 놓친 것이 원통(寃痛)해서 탄식(歎息)함」을 이르는 말</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -7486,12 +7479,9 @@
       <c r="B321" t="inlineStr">
         <is>
           <t>비육지탄, 
-1.
-「넓적다리에 살이 붙음을 탄식(歎息)한다.」는 뜻으로,
-2.
-자기(自己)의 뜻을 펴지 못하고 허송세월(歲月)하는 것을 한탄(恨歎)하다 성공(成功)할 기회(機會)를 잃고 공연(...
-3.
-영웅(英雄)이 때를 만나지 못하여 싸움에 나가지 못하고 넓적다리에 헛된 살만 쩌 가는 것을 한탄(恨歎)한다</t>
+1) 「넓적다리에 살이 붙음을 탄식(歎息)한다」는 뜻으로,
+2) 자기(自己)의 뜻을 펴지 못하고 허송세월(歲月)하는 것을 한탄(恨歎)하다 성공(成功)할 기회(機會)를 잃고 공연(
+3) 영웅(英雄)이 때를 만나지 못하여 싸움에 나가지 못하고 넓적다리에 헛된 살만 쩌 가는 것을 한탄(恨歎)한다</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -7513,7 +7503,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>절치부심, 「이를 갈고 마음을 썩이다.」는 뜻으로, 대단히 분(憤)하게 여기고 마음을 썩임.</t>
+          <t>절치부심, 「이를 갈고 마음을 썩이다」는 뜻으로, 대단히 분(憤)하게 여기고 마음을 썩임</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -7535,7 +7525,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>사필귀정, 처음에는 시비곡직(是非曲直)을 가리지 못하여 그릇되더라도 모든 일은 결국(結局)에 가서는 반드시 정리(正理)로 돌아감.</t>
+          <t>사필귀정, 처음에는 시비곡직(是非曲直)을 가리지 못하여 그릇되더라도 모든 일은 결국(結局)에 가서는 반드시 정리(正理)로 돌아감</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -7579,7 +7569,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>벽사진경, 사귀(邪鬼)를 쫓고 경사(慶事)로운 일을 맞이함.</t>
+          <t>벽사진경, 사귀(邪鬼)를 쫓고 경사(慶事)로운 일을 맞이함</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -7601,7 +7591,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>견강부회, 이치(理致)에 맞지 않는 말을 억지로 끌어 붙여 자기(自己) 주장(主張)의 조건(條件)에 맞도록 함.</t>
+          <t>견강부회, 이치(理致)에 맞지 않는 말을 억지로 끌어 붙여 자기(自己) 주장(主張)의 조건(條件)에 맞도록 함</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -7623,7 +7613,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>은인자중, 밖으로 드러내지 아니하고 참고 감추어 몸가짐을 신중(愼重)히 함.</t>
+          <t>은인자중, 밖으로 드러내지 아니하고 참고 감추어 몸가짐을 신중(愼重)히 함</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -7733,13 +7723,8 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>오월동주,
-1.
-「오(吳)나라 사람과 월(越)나라 사람이 한 배에 타고 있다.」는 뜻으로,
-2.
-어려운 상황(狀況)에서는 원수(怨讐)라도 협력(協力)하게 됨.
-3.
-뜻이 전혀 다른 사람들이 한자리에 있게 됨.</t>
+          <t>오월동주, 1) 「오(吳)나라 사람과 월(越)나라 사람이 한 배에 타고 있다」는 뜻으로,
+2) 어려운 상황(狀況)에서는 원수(怨讐)라도 협력(協力)하게 됨 3) 뜻이 전혀 다른 사람들이 한자리에 있게 됨</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -7761,7 +7746,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>낭중지추, 1. 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味).</t>
+          <t>낭중지추, 1) 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -7827,7 +7812,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>추처낭중, 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味).</t>
+          <t>추처낭중, 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -7844,12 +7829,12 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
+          <t>곡식이나 장작 따위의 더미를 세는 단위 한 가리는 20단</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
           <t>가리</t>
-        </is>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>곡식이나 장작 따위의 더미를 세는 단위. 한 가리는 20단</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -7866,12 +7851,12 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
+          <t>굴비, 비웃 따위나 고비, 고사리 따위를 묶어 세는 단위 한 갓은 굴비비웃 따위 열 마리, 또는 고비고사리 따위 열 모숨을 한 줄로 엮은 것</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
           <t>갓</t>
-        </is>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>굴비, 비웃 따위나 고비, 고사리 따위를 묶어 세는 단위. 한 갓은 굴비․비웃 따위 열 마리, 또는 고비․고사리 따위 열 모숨을 한 줄로 엮은 것</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -7888,12 +7873,12 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
+          <t>오이나 가지 따위를 묶어 세는 단위 한 거리는 50개</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
           <t>거리</t>
-        </is>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>오이나 가지 따위를 묶어 세는 단위. 한 거리는 50개</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -7910,12 +7895,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
+          <t>달걀 열 개를 묶어 세는 단위</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
           <t>꾸러미</t>
-        </is>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>달걀 열 개를 묶어 세는 단위</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -7932,12 +7917,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
+          <t>물건 열두 개를 묶어 세는 단위 ('타' X)</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
           <t>다스</t>
-        </is>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>물건 열두 개를 묶어 세는 단위 ('타' X)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -7954,12 +7939,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
+          <t>짚, 땔나무, 채소 따위의 묶음을 세는 단위</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
           <t>단</t>
-        </is>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>짚, 땔나무, 채소 따위의 묶음을 세는 단위</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -7976,12 +7961,12 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
+          <t>조기 따위의 물고기를 짚으로 한 줄에 열 마리씩 두 줄로 엮은 것을 세는 단위</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
           <t>두름</t>
-        </is>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>조기 따위의 물고기를 짚으로 한 줄에 열 마리씩 두 줄로 엮은 것을 세는 단위</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -7998,12 +7983,12 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
+          <t>이엉을 엮어서 말아 놓은 단을 세는 단위</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
           <t>마름</t>
-        </is>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>이엉을 엮어서 말아 놓은 단을 세는 단위</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -8020,12 +8005,12 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
+          <t>논밭 넓이의 단위 한 마지기는 볍씨 한 말의 모 또는 씨앗을 심을 만한 넓이로, 지방마다 다르나 논은 약 150～300평, 밭은 약 100평 정도</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
           <t>마지기</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>논밭 넓이의 단위. 한 마지기는 볍씨 한 말의 모 또는 씨앗을 심을 만한 넓이로, 지방마다 다르나 논은 약 150～300평, 밭은 약 100평 정도</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -8042,12 +8027,12 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
+          <t>신발의 크기를 잴 때 쓰는 단위 1문은 약 24cm</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
           <t>문</t>
-        </is>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>신발의 크기를 잴 때 쓰는 단위. 1문은 약 2.4cm</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -8064,12 +8049,12 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
+          <t>생선이나 미역을 묶어 세는 단위 한 뭇은 생선 열 마리, 미역 열 장</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
           <t>뭇</t>
-        </is>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>생선이나 미역을 묶어 세는 단위 한 뭇은 생선 열 마리, 미역 열 장</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -8086,13 +8071,13 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
+          <t>①길이의 단위 한 발은 두 팔을 양옆으로 펴서 벌렸을 때 한쪽 손끝에서 다른 쪽 손끝까지의 길이
+② (주로 ‘새끼’ 따위의 뒤에 쓰여) 약간의 그것이라는 뜻을 나타내는 말 잠깐 사이에 새끼 발이나 꼬았다</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
           <t>발</t>
-        </is>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>①길이의 단위. 한 발은 두 팔을 양옆으로 펴서 벌렸을 때 한쪽 손끝에서 다른 쪽 손끝까지의 길이
-② (주로 ‘새끼’ 따위의 뒤에 쓰여) 약간의 그것이라는 뜻을 나타내는 말 잠깐 사이에 새끼 발이나 꼬았다</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -8109,12 +8094,12 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
+          <t>옷이나 그릇 따위가 두 개 또는 여러 개 모여 갖추는 덩어리를 세는 단위</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
           <t>벌</t>
-        </is>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>옷이나 그릇 따위가 두 개 또는 여러 개 모여 갖추는 덩어리를 세는 단위</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -8131,12 +8116,12 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
+          <t>국수, 새끼, 실 따위의 뭉치를 세는 단위</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
           <t>사리</t>
-        </is>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>국수, 새끼, 실 따위의 뭉치를 세는 단위</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -8153,12 +8138,12 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
+          <t>부피의 단위 곡식, 가루, 액체 따위의 부피를 잴 때 사용 한 섬은 한 말의 열 배로 약 180리터에 해당</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
           <t>섬</t>
-        </is>
-      </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>부피의 단위. 곡식, 가루, 액체 따위의 부피를 잴 때 사용 한 섬은 한 말의 열 배로 약 180리터에 해당</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -8175,13 +8160,13 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
+          <t>①한 손에 잡을 만한 분량을 세는 단위 조기, 고등어, 배 추 따위 한 손은 큰 것과 작은 것을 합한 것을 이름 (총 2마리)
+② 미나리나 파 따위 한 손은 한 줌 분량을 이름</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
           <t>손</t>
-        </is>
-      </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>①한 손에 잡을 만한 분량을 세는 단위. 조기, 고등어, 배 추 따위 한 손은 큰 것과 작은 것을 합한 것을 이름 (총 2마리).
-② 미나리나 파 따위 한 손은 한 줌 분량을 이름.</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -8198,12 +8183,12 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
+          <t>밥 따위의 음식물을 숟가락으로 떠 그 분량을 세는 단위</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
           <t>술</t>
-        </is>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>밥 따위의 음식물을 숟가락으로 떠 그 분량을 세는 단위</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -8220,14 +8205,14 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>쌈</t>
-        </is>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
           <t>① 바늘을 세는 단위 24개 
 ② 옷감, 피혁 따위를 알맞은 분량으로 싸 놓은 덩이를 세는 단위
-③ 금의 무게를 나타내는 단위. 한 쌈은 금 백 냥쭝</t>
+③ 금의 무게를 나타내는 단위 한 쌈은 금 백 냥쭝</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>쌈</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -8244,12 +8229,12 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
+          <t>둘을 하나로 묶어 세는 단위</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
           <t>쌍</t>
-        </is>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>둘을 하나로 묶어 세는 단위</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -8266,12 +8251,12 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
+          <t>물건 열두 개를 한 단위로 세는 말('다스' X)</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
           <t>타</t>
-        </is>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>물건 열두 개를 한 단위로 세는 말('다스' X)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -8288,12 +8273,12 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
+          <t>두 팔을 둥글게 모아 만든 둘레 안에 들 만한 분량을 세는 단위</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
           <t>아름</t>
-        </is>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>두 팔을 둥글게 모아 만든 둘레 안에 들 만한 분량을 세는 단위</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -8310,12 +8295,12 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
+          <t>종이를 세는 단위 1연은 500장</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
           <t>연</t>
-        </is>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>종이를 세는 단위. 1연은 500장</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -8332,12 +8317,12 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
+          <t>기와를 세는 단위 한 우리는기와 2천 장</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
           <t>우리</t>
-        </is>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>기와를 세는 단위. 한 우리는기와 2천 장</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -8354,12 +8339,12 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
+          <t>길이의 단위 한 자는 한 치의 열 배로 약 303cm에 해당 [비슷한 말] 척6(尺)</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
           <t>자</t>
-        </is>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>길이의 단위. 한 자는 한 치의 열 배로 약 30.3cm에 해당 [비슷한 말] 척6(尺)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -8376,12 +8361,12 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
+          <t>채소나 과일 따위를 묶어 세는 단위 한 접은 채소나 과일 백 개를 이름</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
           <t>접</t>
-        </is>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>채소나 과일 따위를 묶어 세는 단위. 한 접은 채소나 과일 백 개를 이름</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -8398,12 +8383,12 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
+          <t>한약의 분량을 나타내는 단위 한 제는 탕약스무 첩</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
           <t>제</t>
-        </is>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>한약의 분량을 나타내는 단위. 한 제는 탕약스무 첩</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -8420,12 +8405,12 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
+          <t>옷, 그릇 따위의 열 벌을 묶어 이른 말</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
           <t>죽</t>
-        </is>
-      </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>옷, 그릇 따위의 열 벌을 묶어 이른 말</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -8442,12 +8427,12 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
+          <t>오징어를 묶어 세는 단위 한 축은 오징어 스무 마리를 이름</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
           <t>축</t>
-        </is>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>오징어를 묶어 세는 단위 한 축은 오징어 스무 마리를 이름</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -8464,13 +8449,13 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
+          <t>길이의 단위 한 치는 한 자의 10분의 1 또는 약 303cm에 해당한다
+cf 촌(寸)</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
           <t>치</t>
-        </is>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>길이의 단위. 한 치는 한 자의 10분의 1 또는 약 3.03cm에 해당한다.
-cf 촌(寸)</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -8487,12 +8472,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
+          <t>쾌(북어를 묶어 세는 단위 한 쾌는 북어 20마리)의 방언</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
           <t>코</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>쾌(북어를 묶어 세는 단위. 한 쾌는 북어 20마리)의 방언</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -8509,12 +8494,12 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
+          <t>북어 20마리를 묶은 단위</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
           <t>쾌</t>
-        </is>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>북어 20마리를 묶은 단위</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -8531,12 +8516,12 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
+          <t>김을 세는 단위 100장</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
           <t>톳</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>김을 세는 단위 100장</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -8553,12 +8538,12 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
+          <t>沖年(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
           <t>충년</t>
-        </is>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>沖年(읽는 법)</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -8575,12 +8560,12 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
+          <t>志學(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
           <t>지학</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>志學(읽는 법)</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -8597,12 +8582,12 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
+          <t>弱冠(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
           <t>약관</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>弱冠(읽는 법)</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -8619,12 +8604,12 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
+          <t>而立(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
           <t>이립</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>而立(읽는 법)</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -8641,12 +8626,12 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
+          <t>不惑(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
           <t>불혹</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>不惑(읽는 법)</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -8663,12 +8648,12 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
+          <t>知命(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
           <t>지명</t>
-        </is>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>知命(읽는 법)</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -8685,12 +8670,12 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
+          <t>耳順(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
           <t>이순</t>
-        </is>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>耳順(읽는 법)</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -8707,12 +8692,12 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
+          <t>換甲(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
           <t>환갑</t>
-        </is>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>換甲(읽는 법)</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -8729,12 +8714,12 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
+          <t>還甲(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
           <t>환갑</t>
-        </is>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>還甲(읽는 법)</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -8751,12 +8736,12 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
+          <t>回甲(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
           <t>회갑</t>
-        </is>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>回甲(읽는 법)</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -8773,12 +8758,12 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
+          <t>古稀(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
           <t>고희</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>古稀(읽는 법)</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -8795,12 +8780,12 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
+          <t>喜壽(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
           <t>희수</t>
-        </is>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>喜壽(읽는 법)</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -8817,12 +8802,12 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
+          <t>米壽(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
           <t>미수</t>
-        </is>
-      </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>米壽(읽는 법)</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -8839,14 +8824,14 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
+          <t>白壽(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
           <t>백수</t>
         </is>
       </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>白壽(읽는 법)</t>
-        </is>
-      </c>
       <c r="C382" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -8859,14 +8844,14 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="n">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>沖年(00살)</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
         <v>10</v>
       </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>沖年(00살)</t>
-        </is>
-      </c>
       <c r="C383" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -8879,14 +8864,14 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" t="n">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>志學(00살)</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
         <v>15</v>
       </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>志學(00살)</t>
-        </is>
-      </c>
       <c r="C384" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -8899,14 +8884,14 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" t="n">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>弱冠(00살)</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
         <v>20</v>
       </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>弱冠(00살)</t>
-        </is>
-      </c>
       <c r="C385" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -8919,14 +8904,14 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" t="n">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>而立(00살)</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
         <v>30</v>
       </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>而立(00살)</t>
-        </is>
-      </c>
       <c r="C386" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -8939,14 +8924,14 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="n">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>不惑(00살)</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
         <v>40</v>
       </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>不惑(00살)</t>
-        </is>
-      </c>
       <c r="C387" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -8959,14 +8944,14 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="n">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>知命(00살)</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
         <v>50</v>
       </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>知命(00살)</t>
-        </is>
-      </c>
       <c r="C388" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -8979,14 +8964,14 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" t="n">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>耳順(00살)</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
         <v>60</v>
       </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>耳順(00살)</t>
-        </is>
-      </c>
       <c r="C389" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -8999,14 +8984,14 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" t="n">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>換甲(00살)</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
         <v>61</v>
       </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>換甲(00살)</t>
-        </is>
-      </c>
       <c r="C390" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -9019,14 +9004,14 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" t="n">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>還甲(00살)</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
         <v>61</v>
       </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>還甲(00살)</t>
-        </is>
-      </c>
       <c r="C391" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -9039,14 +9024,14 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" t="n">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>回甲(00살)</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
         <v>61</v>
       </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>回甲(00살)</t>
-        </is>
-      </c>
       <c r="C392" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -9059,14 +9044,14 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" t="n">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>古稀(00살)</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
         <v>70</v>
       </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>古稀(00살)</t>
-        </is>
-      </c>
       <c r="C393" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -9079,14 +9064,14 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="n">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>喜壽(00살)</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
         <v>77</v>
       </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>喜壽(00살)</t>
-        </is>
-      </c>
       <c r="C394" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -9099,14 +9084,14 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" t="n">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>米壽(00살)</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
         <v>88</v>
       </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>米壽(00살)</t>
-        </is>
-      </c>
       <c r="C395" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -9119,13 +9104,13 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="n">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>白壽(00살)</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
         <v>99</v>
-      </c>
-      <c r="B396" t="inlineStr">
-        <is>
-          <t>白壽(00살)</t>
-        </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
@@ -9141,13 +9126,13 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
+          <t>㉠곡식이나 장작 따위의 더미를 세는 단위 한 가리는 스무 단이다
+장작 한 가리</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
           <t>가리</t>
-        </is>
-      </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>㉠곡식이나 장작 따위의 더미를 세는 단위. 한 가리는 스무 단이다
-장작 한 가리</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -9164,12 +9149,12 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
+          <t>㉠가늘고 짤막하게 쪼갠 토막을 세는 단위 장작 두 개비, 담배 대여섯 개비</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
           <t>개비</t>
-        </is>
-      </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>㉠가늘고 짤막하게 쪼갠 토막을 세는 단위 장작 두 개비, 담배 대여섯 개비</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -9186,13 +9171,13 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
+          <t>㉠오이나 가지 따위를 묶어 세는 단위 한 거리는 오이나 가지 오십 개를 이른다
+가지 두 거리</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
           <t>거리</t>
-        </is>
-      </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>㉠오이나 가지 따위를 묶어 세는 단위. 한 거리는 오이나 가지 오십 개를 이른다.
-가지 두 거리</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -9209,15 +9194,15 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>거리</t>
-        </is>
-      </c>
-      <c r="B400" t="inlineStr">
-        <is>
           <t>㉡탈놀음, 꼭두각시놀음, 굿 따위에서, 장(場)을 세는 단위 
 한 거리 놀다</t>
         </is>
       </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>거리</t>
+        </is>
+      </c>
       <c r="C400" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -9232,13 +9217,13 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
+          <t>㉠무게의 단위 한 관은 한 근의 열 배로 375kg에 해당 한다
+감자 세 관</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
           <t>관</t>
-        </is>
-      </c>
-      <c r="B401" t="inlineStr">
-        <is>
-          <t>㉠무게의 단위. 한 관은 한 근의 열 배로 3.75kg에 해당 한다.
-감자 세 관</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -9255,15 +9240,15 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>그루</t>
-        </is>
-      </c>
-      <c r="B402" t="inlineStr">
-        <is>
           <t>㉠식물, 특히 나무를 세는 단위 
 소나무 2천 그루</t>
         </is>
       </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>그루</t>
+        </is>
+      </c>
       <c r="C402" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -9278,15 +9263,15 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>그루</t>
-        </is>
-      </c>
-      <c r="B403" t="inlineStr">
-        <is>
           <t>㉡한 해에 같은 땅에 농사짓는 횟수를 세는 단위 
 두 그루 심는 논농사</t>
         </is>
       </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>그루</t>
+        </is>
+      </c>
       <c r="C403" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -9301,13 +9286,13 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
+          <t>㉠무게의 단위 한 근은 고기나 한약재의 무게를 잴 때는 600그램에 해당하고, 과일이나 채소 따위의 무게를 잴 때는 한 관의 10분의 1로 375그램에 해당한다 
+쇠고기 한 근</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
           <t>근</t>
-        </is>
-      </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>㉠무게의 단위. 한 근은 고기나 한약재의 무게를 잴 때는 600그램에 해당하고, 과일이나 채소 따위의 무게를 잴 때는 한 관의 10분의 1로 375그램에 해당한다. 
-쇠고기 한 근</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -9324,13 +9309,13 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
+          <t>㉠길이의 단위 한 길은 여덟 자 또는 열 자로 약 24미터 또는 3미터에 해당한다
+천 길</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
           <t>길</t>
-        </is>
-      </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>㉠길이의 단위. 한 길은 여덟 자 또는 열 자로 약 2.4미터 또는 3미터에 해당한다.
-천 길</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -9347,12 +9332,12 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
+          <t>㉡길이의 단위 한 길은 사람의 키 정도의 길이이다 트럭에 실린 통나무는 굵기는 한 아름이 넘고 길이는 열 길이 넘었다</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
           <t>길</t>
-        </is>
-      </c>
-      <c r="B406" t="inlineStr">
-        <is>
-          <t>㉡길이의 단위. 한 길은 사람의 키 정도의 길이이다. 트럭에 실린 통나무는 굵기는 한 아름이 넘고 길이는 열 길이 넘었다.</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -9369,15 +9354,15 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>꾸러미</t>
-        </is>
-      </c>
-      <c r="B407" t="inlineStr">
-        <is>
           <t>㉠달걀 열 개를 묶어 세는 단위 
 달걀 한 꾸러미</t>
         </is>
       </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>꾸러미</t>
+        </is>
+      </c>
       <c r="C407" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -9392,13 +9377,13 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
+          <t>㉠예전에, 엽전을 세던 단위 한 냥은 한 돈의 열 배이다 
+돈 천 냥, 돈 만 냥을 꾸다</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
           <t>냥</t>
-        </is>
-      </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>㉠예전에, 엽전을 세던 단위. 한 냥은 한 돈의 열 배이다. 
-돈 천 냥, 돈 만 냥을 꾸다.</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -9415,13 +9400,13 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
+          <t>㉠납작한 물건을 세는 단위 흔히 돈이나 가마니, 멍석 따위를 셀 때 쓴다
+동전 한 닢</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
           <t>닢</t>
-        </is>
-      </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>㉠납작한 물건을 세는 단위. 흔히 돈이나 가마니, 멍석 따위를 셀 때 쓴다.
-동전 한 닢</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -9438,13 +9423,13 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
+          <t>㉠물건 열두 개를 묶어 세는 단위 ‘12개’, ‘타(打)’로 순화 
+연필 한 다스</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
           <t>다스</t>
-        </is>
-      </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>㉠물건 열두 개를 묶어 세는 단위. ‘12개’, ‘타(打)’로 순화 
-연필 한 다스</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -9461,15 +9446,15 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>단</t>
-        </is>
-      </c>
-      <c r="B411" t="inlineStr">
-        <is>
           <t>㉠짚, 땔나무, 채소 따위의 묶음을 세는 단위 
 볏짚 한 단</t>
         </is>
       </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>단</t>
+        </is>
+      </c>
       <c r="C411" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -9484,15 +9469,15 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>대</t>
-        </is>
-      </c>
-      <c r="B412" t="inlineStr">
-        <is>
           <t>㉠화살 따위와 같이 가늘고 긴 물건을 세는 단위 
 화살 세 대</t>
         </is>
       </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>대</t>
+        </is>
+      </c>
       <c r="C412" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -9507,13 +9492,13 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
+          <t>㉡이나 갈비를 세는 단위 
+삼촌은 교통사고로 갈비가 세 대나 나갔다</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
           <t>대</t>
-        </is>
-      </c>
-      <c r="B413" t="inlineStr">
-        <is>
-          <t>㉡이나 갈비를 세는 단위 
-삼촌은 교통사고로 갈비가 세 대나 나갔다.</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -9530,13 +9515,13 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
+          <t>㉢담배통에 채워 넣는 담배의 분량이나 담배를 피우는 횟수를 세는 단위 
+담배 한 대 먼저 채우고 나서 이야기합시다</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
           <t>대</t>
-        </is>
-      </c>
-      <c r="B414" t="inlineStr">
-        <is>
-          <t>㉢담배통에 채워 넣는 담배의 분량이나 담배를 피우는 횟수를 세는 단위 
-담배 한 대 먼저 채우고 나서 이야기합시다.</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -9553,15 +9538,15 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>대</t>
-        </is>
-      </c>
-      <c r="B415" t="inlineStr">
-        <is>
           <t>㉣때리는 횟수를 세는 단위 
 회초리로 몇 대 맞을래?</t>
         </is>
       </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>대</t>
+        </is>
+      </c>
       <c r="C415" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -9576,13 +9561,13 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
+          <t>㉤주사를 놓는 횟수를 세는 단위 
+엉덩이에 주사를 한 대 맞다</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
           <t>대</t>
-        </is>
-      </c>
-      <c r="B416" t="inlineStr">
-        <is>
-          <t>㉤주사를 놓는 횟수를 세는 단위 
-엉덩이에 주사를 한 대 맞다.</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -9599,14 +9584,14 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
+          <t>㉠무게의 단위 귀금속이나 한약재 따위의 무게를 잴 때 쓴다 
+한 돈은 한 냥의 10분의 1, 한 푼의 열 배로 375 그램에 해당한다
+금 두 냥 서 돈</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
           <t>돈</t>
-        </is>
-      </c>
-      <c r="B417" t="inlineStr">
-        <is>
-          <t>㉠무게의 단위. 귀금속이나 한약재 따위의 무게를 잴 때 쓴다. 
-한 돈은 한 냥의 10분의 1, 한 푼의 열 배로 3.75 그램에 해당한다.
-금 두 냥 서 돈</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -9623,13 +9608,13 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
+          <t>㉠부피의 단위 곡식, 가루, 액체 따위의 부피를 잴 때 쓴 다 한 되는 한 말의 10분의 1, 한 홉의 열 배로 약 1)8리 터에 해당한다
+쌀 한 되</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
           <t>되</t>
-        </is>
-      </c>
-      <c r="B418" t="inlineStr">
-        <is>
-          <t>㉠부피의 단위. 곡식, 가루, 액체 따위의 부피를 잴 때 쓴 다. 한 되는 한 말의 10분의 1, 한 홉의 열 배로 약 1.8리 터에 해당한다.
-쌀 한 되</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -9646,15 +9631,15 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>되들이</t>
-        </is>
-      </c>
-      <c r="B419" t="inlineStr">
-        <is>
           <t>㉠곡식이나 물, 술 따위를 되에 담아 그 분량을 세는 단위 
 한 되들이 술병</t>
         </is>
       </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>되들이</t>
+        </is>
+      </c>
       <c r="C419" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -9669,13 +9654,13 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
+          <t>㉠논, 밭의 넓이의 단위 볍씨 한 되의 모나 씨앗을 심을 만한 넓이로 한 마지기의 10분의 1이다 
+땅은 논 열 마지기와 밭 두 되지기가 고작이었다</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
           <t>되지기</t>
-        </is>
-      </c>
-      <c r="B420" t="inlineStr">
-        <is>
-          <t>㉠논, 밭의 넓이의 단위. 볍씨 한 되의 모나 씨앗을 심을 만한 넓이로 한 마지기의 10분의 1이다. 
-땅은 논 열 마지기와 밭 두 되지기가 고작이었다</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -9692,15 +9677,15 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>두름</t>
-        </is>
-      </c>
-      <c r="B421" t="inlineStr">
-        <is>
           <t>㉠ 조기 따위의 물고기를 짚으로 한 줄에 열 마리씩 두 줄로 엮은 것을 세는 단위 
 청어 한 두름</t>
         </is>
       </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>두름</t>
+        </is>
+      </c>
       <c r="C421" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -9715,15 +9700,15 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>두름</t>
-        </is>
-      </c>
-      <c r="B422" t="inlineStr">
-        <is>
           <t>㉡고사리 따위의 산나물을 열 모숨 정도로 엮은 것을 세는 단위
 고사리 한 두름</t>
         </is>
       </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>두름</t>
+        </is>
+      </c>
       <c r="C422" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -9738,13 +9723,13 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
+          <t>㉠실을 꿴 바늘로 한 번 뜬 자국을 세는 단위 
+바느질을 한 땀 한 땀 정성 들여 하다</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
           <t>땀</t>
-        </is>
-      </c>
-      <c r="B423" t="inlineStr">
-        <is>
-          <t>㉠실을 꿴 바늘로 한 번 뜬 자국을 세는 단위 
-바느질을 한 땀 한 땀 정성 들여 하다.</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -9761,13 +9746,13 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
+          <t>㉠거리의 단위 1리는 약 0393km에 해당한다 
+예전에는 학교까지 오 리쯤 걸어 다녔다</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
           <t>리</t>
-        </is>
-      </c>
-      <c r="B424" t="inlineStr">
-        <is>
-          <t>㉠거리의 단위. 1리는 약 0.393km에 해당한다. 
-예전에는 학교까지 오 리쯤 걸어 다녔다.</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -9784,15 +9769,15 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>마리</t>
-        </is>
-      </c>
-      <c r="B425" t="inlineStr">
-        <is>
           <t>㉠짐승이나 물고기, 벌레 따위를 세는 단위 
 소 한 마리</t>
         </is>
       </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>마리</t>
+        </is>
+      </c>
       <c r="C425" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -9807,13 +9792,13 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
+          <t>㉠논밭 넓이의 단위 지방마다 다르나 논은 약 150~300 평, 밭은 약 100평 정도이다
+논 다섯 마지기</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
           <t>마지기</t>
-        </is>
-      </c>
-      <c r="B426" t="inlineStr">
-        <is>
-          <t>㉠논밭 넓이의 단위. 지방마다 다르나 논은 약 150~300 평, 밭은 약 100평 정도이다.
-논 다섯 마지기</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -9830,15 +9815,15 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>모</t>
-        </is>
-      </c>
-      <c r="B427" t="inlineStr">
-        <is>
           <t>㉠두부나 묵 따위를 세는 단위 
 두부 한 모</t>
         </is>
       </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>모</t>
+        </is>
+      </c>
       <c r="C427" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -9853,15 +9838,15 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>모금</t>
-        </is>
-      </c>
-      <c r="B428" t="inlineStr">
-        <is>
           <t>㉠액체나 기체를 입 안에 한 번 머금는 분량을 세는 단위 
 물 한 모금, 담배 몇 모금</t>
         </is>
       </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>모금</t>
+        </is>
+      </c>
       <c r="C428" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -9876,13 +9861,13 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
+          <t>㉠길이의 단위 신발의 크기를 잴 때 쓴다 1문은 약 24cm에 해당한다
+십 문 반짜리 운동화</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
           <t>문</t>
-        </is>
-      </c>
-      <c r="B429" t="inlineStr">
-        <is>
-          <t>㉠길이의 단위. 신발의 크기를 잴 때 쓴다. 1문은 약 2.4cm에 해당한다.
-십 문 반짜리 운동화</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -9899,15 +9884,15 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>뭇</t>
-        </is>
-      </c>
-      <c r="B430" t="inlineStr">
-        <is>
           <t>㉠짚, 장작, 채소 따위의 작은 묶음을 세는 단위 
 땔감은 아예 말똥, 소똥을 말려 쓰고, 몇 뭇 안 남은 조 짚은 마소를 먹였다</t>
         </is>
       </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>뭇</t>
+        </is>
+      </c>
       <c r="C430" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -9922,12 +9907,12 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
+          <t>㉡볏단을 세는 단위</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
           <t>뭇</t>
-        </is>
-      </c>
-      <c r="B431" t="inlineStr">
-        <is>
-          <t>㉡볏단을 세는 단위</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -9944,13 +9929,13 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
+          <t>㉢생선을 묶어 세는 단위 한 뭇은 생선 열 마리를 이른다 
+삼치 다섯 뭇</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
           <t>뭇</t>
-        </is>
-      </c>
-      <c r="B432" t="inlineStr">
-        <is>
-          <t>㉢생선을 묶어 세는 단위. 한 뭇은 생선 열 마리를 이른다. 
-삼치 다섯 뭇</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -9967,12 +9952,12 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
+          <t>㉣미역을 묶어 세는 단위 한 뭇은 미역 열 장을 이른다</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
           <t>뭇</t>
-        </is>
-      </c>
-      <c r="B433" t="inlineStr">
-        <is>
-          <t>㉣미역을 묶어 세는 단위. 한 뭇은 미역 열 장을 이른다.</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -9989,12 +9974,12 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
+          <t>하나둘, 한둘</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
           <t>1 2</t>
-        </is>
-      </c>
-      <c r="B434" t="inlineStr">
-        <is>
-          <t>하나둘, 한둘</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -10011,12 +9996,12 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
+          <t>두셋</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
           <t>2 3</t>
-        </is>
-      </c>
-      <c r="B435" t="inlineStr">
-        <is>
-          <t>두셋</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -10033,12 +10018,12 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
+          <t>서너</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
           <t>3 4</t>
-        </is>
-      </c>
-      <c r="B436" t="inlineStr">
-        <is>
-          <t>서너</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -10055,12 +10040,12 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
+          <t>네댓</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
           <t>4 5</t>
-        </is>
-      </c>
-      <c r="B437" t="inlineStr">
-        <is>
-          <t>네댓</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -10077,12 +10062,12 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
+          <t>네다섯</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
           <t>4 5</t>
-        </is>
-      </c>
-      <c r="B438" t="inlineStr">
-        <is>
-          <t>네다섯</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -10099,12 +10084,12 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
+          <t>예닐곱</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
           <t>5 6</t>
-        </is>
-      </c>
-      <c r="B439" t="inlineStr">
-        <is>
-          <t>예닐곱</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -10121,12 +10106,12 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
+          <t>두서너</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
           <t>2 3 4</t>
-        </is>
-      </c>
-      <c r="B440" t="inlineStr">
-        <is>
-          <t>두서너</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -10143,12 +10128,12 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
+          <t>두서넛</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
           <t>2 3 4</t>
-        </is>
-      </c>
-      <c r="B441" t="inlineStr">
-        <is>
-          <t>두서넛</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -10165,12 +10150,12 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
+          <t>너더댓</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
           <t>4 5</t>
-        </is>
-      </c>
-      <c r="B442" t="inlineStr">
-        <is>
-          <t>너더댓</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -10187,12 +10172,12 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
+          <t>네다섯</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
           <t>4 5</t>
-        </is>
-      </c>
-      <c r="B443" t="inlineStr">
-        <is>
-          <t>네다섯</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -10209,12 +10194,12 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
+          <t>대여섯</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
           <t>5 6</t>
-        </is>
-      </c>
-      <c r="B444" t="inlineStr">
-        <is>
-          <t>대여섯</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -10231,12 +10216,12 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
+          <t>대엿</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
           <t>5 6</t>
-        </is>
-      </c>
-      <c r="B445" t="inlineStr">
-        <is>
-          <t>대엿</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -10253,12 +10238,12 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
+          <t>일여덟</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
           <t>7 8</t>
-        </is>
-      </c>
-      <c r="B446" t="inlineStr">
-        <is>
-          <t>일여덟</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -10275,12 +10260,12 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
+          <t>열이 조금 넘는 수</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
           <t>여남은</t>
-        </is>
-      </c>
-      <c r="B447" t="inlineStr">
-        <is>
-          <t>열이 조금 넘는 수</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -10297,12 +10282,12 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
+          <t>엄지(손가락)</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
           <t>첫째 손가락</t>
-        </is>
-      </c>
-      <c r="B448" t="inlineStr">
-        <is>
-          <t>엄지(손가락)</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -10319,12 +10304,12 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
+          <t>무지(拇指)</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
           <t>첫째 손가락</t>
-        </is>
-      </c>
-      <c r="B449" t="inlineStr">
-        <is>
-          <t>무지(拇指)</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -10341,12 +10326,12 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
+          <t>대무지(大拇指)</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
           <t>첫째 손가락</t>
-        </is>
-      </c>
-      <c r="B450" t="inlineStr">
-        <is>
-          <t>대무지(大拇指)</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -10363,12 +10348,12 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
+          <t>대지(大旨)</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
           <t>첫째 손가락</t>
-        </is>
-      </c>
-      <c r="B451" t="inlineStr">
-        <is>
-          <t>대지(大旨)</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -10385,12 +10370,12 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
+          <t>거지(巨指)</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
           <t>첫째 손가락</t>
-        </is>
-      </c>
-      <c r="B452" t="inlineStr">
-        <is>
-          <t>거지(巨指)</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -10407,12 +10392,12 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
+          <t>벽지(擘指)</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
           <t>첫째 손가락</t>
-        </is>
-      </c>
-      <c r="B453" t="inlineStr">
-        <is>
-          <t>벽지(擘指)</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -10429,12 +10414,12 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
+          <t>검지</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
           <t>둘째 손가락</t>
-        </is>
-      </c>
-      <c r="B454" t="inlineStr">
-        <is>
-          <t>검지</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -10451,12 +10436,12 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
+          <t>집게손가락</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
           <t>둘째 손가락</t>
-        </is>
-      </c>
-      <c r="B455" t="inlineStr">
-        <is>
-          <t>집게손가락</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -10473,12 +10458,12 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
+          <t>식지(食指)</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
           <t>둘째 손가락</t>
-        </is>
-      </c>
-      <c r="B456" t="inlineStr">
-        <is>
-          <t>식지(食指)</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -10495,12 +10480,12 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
+          <t>염지(鹽指)</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
           <t>둘째 손가락</t>
-        </is>
-      </c>
-      <c r="B457" t="inlineStr">
-        <is>
-          <t>염지(鹽指)</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -10517,12 +10502,12 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
+          <t>인지(人指)</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
           <t>둘째 손가락</t>
-        </is>
-      </c>
-      <c r="B458" t="inlineStr">
-        <is>
-          <t>인지(人指)</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -10539,12 +10524,12 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
+          <t>가운뎃손가락</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
           <t>셋째 손가락</t>
-        </is>
-      </c>
-      <c r="B459" t="inlineStr">
-        <is>
-          <t>가운뎃손가락</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -10561,12 +10546,12 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
+          <t>장지(長指)</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
           <t>셋째 손가락</t>
-        </is>
-      </c>
-      <c r="B460" t="inlineStr">
-        <is>
-          <t>장지(長指)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -10583,12 +10568,12 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
+          <t>중지(中指)</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
           <t>셋째 손가락</t>
-        </is>
-      </c>
-      <c r="B461" t="inlineStr">
-        <is>
-          <t>중지(中指)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -10605,12 +10590,12 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
+          <t>장짓가락</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
           <t>셋째 손가락</t>
-        </is>
-      </c>
-      <c r="B462" t="inlineStr">
-        <is>
-          <t>장짓가락</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -10627,12 +10612,12 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
+          <t>상지(上指)</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
           <t>셋째 손가락</t>
-        </is>
-      </c>
-      <c r="B463" t="inlineStr">
-        <is>
-          <t>상지(上指)</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -10649,12 +10634,12 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
+          <t>약지(藥指)</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
           <t>넷째 손가락</t>
-        </is>
-      </c>
-      <c r="B464" t="inlineStr">
-        <is>
-          <t>약지(藥指)</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -10671,12 +10656,12 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
+          <t>약손가락</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
           <t>넷째 손가락</t>
-        </is>
-      </c>
-      <c r="B465" t="inlineStr">
-        <is>
-          <t>약손가락</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -10693,12 +10678,12 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
+          <t>무명지(無名指)</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
           <t>넷째 손가락</t>
-        </is>
-      </c>
-      <c r="B466" t="inlineStr">
-        <is>
-          <t>무명지(無名指)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -10715,12 +10700,12 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
+          <t>새끼손(가락)</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
           <t>다섯째 손가락</t>
-        </is>
-      </c>
-      <c r="B467" t="inlineStr">
-        <is>
-          <t>새끼손(가락)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -10737,12 +10722,12 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
+          <t>소지(小指)</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
           <t>다섯째 손가락</t>
-        </is>
-      </c>
-      <c r="B468" t="inlineStr">
-        <is>
-          <t>소지(小指)</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -10759,12 +10744,12 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
+          <t>계지(季指)</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
           <t>다섯째 손가락</t>
-        </is>
-      </c>
-      <c r="B469" t="inlineStr">
-        <is>
-          <t>계지(季指)</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -10781,12 +10766,12 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
+          <t>수소지(手小指)</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
           <t>다섯째 손가락</t>
-        </is>
-      </c>
-      <c r="B470" t="inlineStr">
-        <is>
-          <t>수소지(手小指)</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -10907,6 +10892,433 @@
       <c r="D475" t="inlineStr">
         <is>
           <t>고전</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>基盤</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>기반</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>創製</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>창제</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>具現</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>구현</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>有利</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>유리</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>蚌鷸之爭</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>방휼지쟁, 「도요새가 조개와 다투다가 다 같이 어부(漁夫)에게 잡히고 말았다」는 뜻으로, 제3자(第三者)만 이(利)롭게 하는 다툼을 이르는 말</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>羊頭狗肉</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>양두구육, 
+1) 「양(羊) 머리를 걸어놓고 개고기를 판다」는 뜻으로,
+2) 겉은 훌륭해 보이나 속은 그렇지 못한 것 
+3) 겉과 속이 서로 다름</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>綿裏藏針</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>면리장침, 「솜 속에 바늘을 감추어 꽂는다」는 뜻으로, 겉으로는 부드러운 듯하나 속으로는 아주 흉악(凶惡)함을 이름</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>마음이나 생각 따위가 잘못 들다</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>빗들다</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>고유어</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>물건을 벨 때 칼이나 톱이 먹줄대로 나가지 아니 하고 비뚤어지게 잘못 들어가다</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>빗먹다</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>고유어</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>보통의 이치에서 벗어나 막되고 상스럽다</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>상없다</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>고유어</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>지나치게 치켜세우다</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>치살리다</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>고유어</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>자세히 모르고 대강 또는 반쯤만 알다</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>데알다</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>고유어</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>強度</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>강도</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>統制</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>통제</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>行間</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>행간</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>端緖</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>단서</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>後生可畏</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>후생가외, 「젊은 후학(後學)들을 두려워할 만하다」는 뜻으로, 후진(後進)들이 선배(先輩)들보다 젊고 기력(氣力)이 좋아, 학문(學問)을 닦음에 따라 큰 인물(人物)이 될 수 있으므로 가히 두렵다는 말</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>不問曲直</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t xml:space="preserve">불문곡직, 
+1) 「굽음과 곧음을 묻지 않는다」는 뜻으로,
+2) 옳고 그름을 가리지 않고 함부로 일을 처리(處理)함 
+3) 잘잘못을 묻지 않고 함부로 행(行)함 </t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>道聽塗說</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>도청도설, 
+1)「길거리에서 들은 이야기를 곧 그 길에서 다른 사람에게 말한다」는 뜻으로,
+2) 거리에서 들은 것을 남에게 아는 체하며 말함 
+3) 깊이 생각 않고 예사(例事)로 듣고 말함</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>사자성어</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/국어_복습_속담제거.xlsx
+++ b/학습자료/단답형/국어_복습_속담제거.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D494"/>
+  <dimension ref="A1:D495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11322,6 +11322,28 @@
         </is>
       </c>
     </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>大馬不死</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>대마불사, 바둑을 둘 때, 대마는 쉽게 죽지 아니하고 필경 살길이 생겨난다는 말.</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>6일차</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/학습자료/단답형/국어_복습_속담제거.xlsx
+++ b/학습자료/단답형/국어_복습_속담제거.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D495"/>
+  <dimension ref="A1:D371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
@@ -6007,7 +6007,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
@@ -6975,7 +6975,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
@@ -6997,7 +6997,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
@@ -7107,7 +7107,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
@@ -7307,7 +7307,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
@@ -7373,7 +7373,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
@@ -7395,14 +7395,14 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>亡羊之歎</t>
+          <t>亡羊之歎/望洋之歎</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -7419,22 +7419,19 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>望洋之歎</t>
+          <t>晩時之歎</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>망양지탄, 
-1) 「넓은 바다를 보고 탄식(歎息)한다」는 뜻으로,
-2) 남의 원대(遠大)함에 감탄(感歎ㆍ感嘆)하고, 나의 미흡(未洽)함을 부끄러워함의 비유(比喩ㆍ譬喩)
-3) 제힘이 미치지 못할 때 하는 탄식(歎息)</t>
+          <t>만시지탄, 「때늦은 한탄(恨歎)」이라는 뜻으로, 「시기(時期)가 늦어 기회(機會)를 놓친 것이 원통(寃痛)해서 탄식(歎息)함」을 이르는 말</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -7444,39 +7441,17 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>晩時之歎</t>
+          <t>髀肉之嘆</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
-        <is>
-          <t>만시지탄, 「때늦은 한탄(恨歎)」이라는 뜻으로, 「시기(時期)가 늦어 기회(機會)를 놓친 것이 원통(寃痛)해서 탄식(歎息)함」을 이르는 말</t>
-        </is>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>한자어</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>髀肉之嘆</t>
-        </is>
-      </c>
-      <c r="B321" t="inlineStr">
         <is>
           <t>비육지탄, 
 1) 「넓적다리에 살이 붙음을 탄식(歎息)한다」는 뜻으로,
@@ -7484,6 +7459,28 @@
 3) 영웅(英雄)이 때를 만나지 못하여 싸움에 나가지 못하고 넓적다리에 헛된 살만 쩌 가는 것을 한탄(恨歎)한다</t>
         </is>
       </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>5일차</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>切齒腐心</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>절치부심, 「이를 갈고 마음을 썩이다」는 뜻으로, 대단히 분(憤)하게 여기고 마음을 썩임</t>
+        </is>
+      </c>
       <c r="C321" t="inlineStr">
         <is>
           <t>5일차</t>
@@ -7491,19 +7488,19 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>切齒腐心</t>
+          <t>事必歸正</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>절치부심, 「이를 갈고 마음을 썩이다」는 뜻으로, 대단히 분(憤)하게 여기고 마음을 썩임</t>
+          <t>사필귀정, 처음에는 시비곡직(是非曲直)을 가리지 못하여 그릇되더라도 모든 일은 결국(結局)에 가서는 반드시 정리(正理)로 돌아감</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -7513,19 +7510,19 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>事必歸正</t>
+          <t>風木之悲</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>사필귀정, 처음에는 시비곡직(是非曲直)을 가리지 못하여 그릇되더라도 모든 일은 결국(結局)에 가서는 반드시 정리(正理)로 돌아감</t>
+          <t>풍목지비, (→風樹之歎(풍수지탄))</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -7535,19 +7532,19 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>風木之悲</t>
+          <t>辟邪進慶</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>풍목지비, (→風樹之歎(풍수지탄))</t>
+          <t>벽사진경, 사귀(邪鬼)를 쫓고 경사(慶事)로운 일을 맞이함</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -7557,19 +7554,19 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>辟邪進慶</t>
+          <t>牽強附會</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>벽사진경, 사귀(邪鬼)를 쫓고 경사(慶事)로운 일을 맞이함</t>
+          <t>견강부회, 이치(理致)에 맞지 않는 말을 억지로 끌어 붙여 자기(自己) 주장(主張)의 조건(條件)에 맞도록 함</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -7579,19 +7576,19 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>牽強附會</t>
+          <t>隱忍自重</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>견강부회, 이치(理致)에 맞지 않는 말을 억지로 끌어 붙여 자기(自己) 주장(主張)의 조건(條件)에 맞도록 함</t>
+          <t>은인자중, 밖으로 드러내지 아니하고 참고 감추어 몸가짐을 신중(愼重)히 함</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -7601,19 +7598,19 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>隱忍自重</t>
+          <t>황후(뜻)</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>은인자중, 밖으로 드러내지 아니하고 참고 감추어 몸가짐을 신중(愼重)히 함</t>
+          <t>물건</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -7623,19 +7620,19 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>고전</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>황후(뜻)</t>
+          <t>동난지이(뜻)</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>물건</t>
+          <t>게</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -7652,12 +7649,12 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>동난지이(뜻)</t>
+          <t>쟝스(뜻)</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>게</t>
+          <t>장사꾼</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -7674,12 +7671,12 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>쟝스(뜻)</t>
+          <t>아리(뜻)</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>장사꾼</t>
+          <t>다리</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -7696,12 +7693,13 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>아리(뜻)</t>
+          <t>吳越同舟</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>다리</t>
+          <t>오월동주, 1) 「오(吳)나라 사람과 월(越)나라 사람이 한 배에 타고 있다」는 뜻으로,
+2) 어려운 상황(狀況)에서는 원수(怨讐)라도 협력(協力)하게 됨 3) 뜻이 전혀 다른 사람들이 한자리에 있게 됨</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -7711,20 +7709,19 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>고전</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>吳越同舟</t>
+          <t>囊中之錐</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>오월동주, 1) 「오(吳)나라 사람과 월(越)나라 사람이 한 배에 타고 있다」는 뜻으로,
-2) 어려운 상황(狀況)에서는 원수(怨讐)라도 협력(協力)하게 됨 3) 뜻이 전혀 다른 사람들이 한자리에 있게 됨</t>
+          <t>낭중지추, 1) 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -7741,12 +7738,12 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>囊中之錐</t>
+          <t>隹</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>낭중지추, 1) 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
+          <t>새 추</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -7763,12 +7760,12 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>隹</t>
+          <t>錐</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>새 추</t>
+          <t>송곳 추</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -7785,12 +7782,12 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>錐</t>
+          <t>錐處囊中</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>송곳 추</t>
+          <t>추처낭중, 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -7807,12 +7804,12 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>錐處囊中</t>
+          <t>하(고전)</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>추처낭중, 「주머니 속에 있는 송곳」이란 뜻으로, 재능(才能)이 아주 빼어난 사람은 숨어 있어도 저절로 남의 눈에 드러난다는 비유적(比喩的) 의미(意味)</t>
+          <t>높임의 호격조사</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -7822,3196 +7819,215 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>한자어</t>
+          <t>고전</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>곡식이나 장작 따위의 더미를 세는 단위 한 가리는 20단</t>
+          <t>곰(고전)</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>가리</t>
+          <t>강조 접미사</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>1주차</t>
+          <t>5일차</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>암기자료</t>
+          <t>고전</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>굴비, 비웃 따위나 고비, 고사리 따위를 묶어 세는 단위 한 갓은 굴비비웃 따위 열 마리, 또는 고비고사리 따위 열 모숨을 한 줄로 엮은 것</t>
+          <t>샤(고전)</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>갓</t>
+          <t>주체 높임 선어말 어미</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>1주차</t>
+          <t>5일차</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>암기자료</t>
+          <t>고전</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>오이나 가지 따위를 묶어 세는 단위 한 거리는 50개</t>
+          <t>ㄹ셰라(고전)</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>거리</t>
+          <t>~할까 두렵다</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>1주차</t>
+          <t>5일차</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>암기자료</t>
+          <t>고전</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>달걀 열 개를 묶어 세는 단위</t>
+          <t>즈이(고전)</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>꾸러미</t>
+          <t>모습이</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>1주차</t>
+          <t>5일차</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>암기자료</t>
+          <t>고전</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>물건 열두 개를 묶어 세는 단위 ('타' X)</t>
+          <t>基盤</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>다스</t>
+          <t>기반</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>1주차</t>
+          <t>6일차</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>암기자료</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>짚, 땔나무, 채소 따위의 묶음을 세는 단위</t>
+          <t>創製</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>단</t>
+          <t>창제</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>1주차</t>
+          <t>6일차</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>암기자료</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>조기 따위의 물고기를 짚으로 한 줄에 열 마리씩 두 줄로 엮은 것을 세는 단위</t>
+          <t>具現</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>두름</t>
+          <t>구현</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>1주차</t>
+          <t>6일차</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>암기자료</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>이엉을 엮어서 말아 놓은 단을 세는 단위</t>
+          <t>有利</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>마름</t>
+          <t>유리</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>1주차</t>
+          <t>6일차</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>암기자료</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>논밭 넓이의 단위 한 마지기는 볍씨 한 말의 모 또는 씨앗을 심을 만한 넓이로, 지방마다 다르나 논은 약 150～300평, 밭은 약 100평 정도</t>
+          <t>蚌鷸之爭</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>마지기</t>
+          <t>방휼지쟁, 「도요새가 조개와 다투다가 다 같이 어부(漁夫)에게 잡히고 말았다」는 뜻으로, 제3자(第三者)만 이(利)롭게 하는 다툼을 이르는 말</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>1주차</t>
+          <t>6일차</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>암기자료</t>
+          <t>사자성어</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>신발의 크기를 잴 때 쓰는 단위 1문은 약 24cm</t>
+          <t>羊頭狗肉</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
-        <is>
-          <t>문</t>
-        </is>
-      </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>생선이나 미역을 묶어 세는 단위 한 뭇은 생선 열 마리, 미역 열 장</t>
-        </is>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>뭇</t>
-        </is>
-      </c>
-      <c r="C347" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>①길이의 단위 한 발은 두 팔을 양옆으로 펴서 벌렸을 때 한쪽 손끝에서 다른 쪽 손끝까지의 길이
-② (주로 ‘새끼’ 따위의 뒤에 쓰여) 약간의 그것이라는 뜻을 나타내는 말 잠깐 사이에 새끼 발이나 꼬았다</t>
-        </is>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>발</t>
-        </is>
-      </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>옷이나 그릇 따위가 두 개 또는 여러 개 모여 갖추는 덩어리를 세는 단위</t>
-        </is>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>벌</t>
-        </is>
-      </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>국수, 새끼, 실 따위의 뭉치를 세는 단위</t>
-        </is>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>사리</t>
-        </is>
-      </c>
-      <c r="C350" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>부피의 단위 곡식, 가루, 액체 따위의 부피를 잴 때 사용 한 섬은 한 말의 열 배로 약 180리터에 해당</t>
-        </is>
-      </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>섬</t>
-        </is>
-      </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>①한 손에 잡을 만한 분량을 세는 단위 조기, 고등어, 배 추 따위 한 손은 큰 것과 작은 것을 합한 것을 이름 (총 2마리)
-② 미나리나 파 따위 한 손은 한 줌 분량을 이름</t>
-        </is>
-      </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>손</t>
-        </is>
-      </c>
-      <c r="C352" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D352" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>밥 따위의 음식물을 숟가락으로 떠 그 분량을 세는 단위</t>
-        </is>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>술</t>
-        </is>
-      </c>
-      <c r="C353" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D353" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>① 바늘을 세는 단위 24개 
-② 옷감, 피혁 따위를 알맞은 분량으로 싸 놓은 덩이를 세는 단위
-③ 금의 무게를 나타내는 단위 한 쌈은 금 백 냥쭝</t>
-        </is>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>쌈</t>
-        </is>
-      </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D354" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>둘을 하나로 묶어 세는 단위</t>
-        </is>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>쌍</t>
-        </is>
-      </c>
-      <c r="C355" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D355" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>물건 열두 개를 한 단위로 세는 말('다스' X)</t>
-        </is>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>타</t>
-        </is>
-      </c>
-      <c r="C356" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>두 팔을 둥글게 모아 만든 둘레 안에 들 만한 분량을 세는 단위</t>
-        </is>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>아름</t>
-        </is>
-      </c>
-      <c r="C357" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>종이를 세는 단위 1연은 500장</t>
-        </is>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>연</t>
-        </is>
-      </c>
-      <c r="C358" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>기와를 세는 단위 한 우리는기와 2천 장</t>
-        </is>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>우리</t>
-        </is>
-      </c>
-      <c r="C359" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>길이의 단위 한 자는 한 치의 열 배로 약 303cm에 해당 [비슷한 말] 척6(尺)</t>
-        </is>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>자</t>
-        </is>
-      </c>
-      <c r="C360" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>채소나 과일 따위를 묶어 세는 단위 한 접은 채소나 과일 백 개를 이름</t>
-        </is>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>접</t>
-        </is>
-      </c>
-      <c r="C361" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>한약의 분량을 나타내는 단위 한 제는 탕약스무 첩</t>
-        </is>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>제</t>
-        </is>
-      </c>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D362" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>옷, 그릇 따위의 열 벌을 묶어 이른 말</t>
-        </is>
-      </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>죽</t>
-        </is>
-      </c>
-      <c r="C363" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D363" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>오징어를 묶어 세는 단위 한 축은 오징어 스무 마리를 이름</t>
-        </is>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>축</t>
-        </is>
-      </c>
-      <c r="C364" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>길이의 단위 한 치는 한 자의 10분의 1 또는 약 303cm에 해당한다
-cf 촌(寸)</t>
-        </is>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>치</t>
-        </is>
-      </c>
-      <c r="C365" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>쾌(북어를 묶어 세는 단위 한 쾌는 북어 20마리)의 방언</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>코</t>
-        </is>
-      </c>
-      <c r="C366" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>북어 20마리를 묶은 단위</t>
-        </is>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>쾌</t>
-        </is>
-      </c>
-      <c r="C367" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D367" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>김을 세는 단위 100장</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>톳</t>
-        </is>
-      </c>
-      <c r="C368" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>沖年(읽는 법)</t>
-        </is>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>충년</t>
-        </is>
-      </c>
-      <c r="C369" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D369" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>志學(읽는 법)</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>지학</t>
-        </is>
-      </c>
-      <c r="C370" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D370" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>弱冠(읽는 법)</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>약관</t>
-        </is>
-      </c>
-      <c r="C371" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D371" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>而立(읽는 법)</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>이립</t>
-        </is>
-      </c>
-      <c r="C372" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D372" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>不惑(읽는 법)</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>불혹</t>
-        </is>
-      </c>
-      <c r="C373" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D373" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>知命(읽는 법)</t>
-        </is>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>지명</t>
-        </is>
-      </c>
-      <c r="C374" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D374" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>耳順(읽는 법)</t>
-        </is>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>이순</t>
-        </is>
-      </c>
-      <c r="C375" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D375" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>換甲(읽는 법)</t>
-        </is>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>환갑</t>
-        </is>
-      </c>
-      <c r="C376" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D376" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>還甲(읽는 법)</t>
-        </is>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>환갑</t>
-        </is>
-      </c>
-      <c r="C377" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D377" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>回甲(읽는 법)</t>
-        </is>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>회갑</t>
-        </is>
-      </c>
-      <c r="C378" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D378" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>古稀(읽는 법)</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>고희</t>
-        </is>
-      </c>
-      <c r="C379" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D379" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>喜壽(읽는 법)</t>
-        </is>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>희수</t>
-        </is>
-      </c>
-      <c r="C380" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D380" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>米壽(읽는 법)</t>
-        </is>
-      </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>미수</t>
-        </is>
-      </c>
-      <c r="C381" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D381" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>白壽(읽는 법)</t>
-        </is>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>백수</t>
-        </is>
-      </c>
-      <c r="C382" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D382" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>沖年(00살)</t>
-        </is>
-      </c>
-      <c r="B383" t="n">
-        <v>10</v>
-      </c>
-      <c r="C383" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D383" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>志學(00살)</t>
-        </is>
-      </c>
-      <c r="B384" t="n">
-        <v>15</v>
-      </c>
-      <c r="C384" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D384" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>弱冠(00살)</t>
-        </is>
-      </c>
-      <c r="B385" t="n">
-        <v>20</v>
-      </c>
-      <c r="C385" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D385" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>而立(00살)</t>
-        </is>
-      </c>
-      <c r="B386" t="n">
-        <v>30</v>
-      </c>
-      <c r="C386" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D386" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>不惑(00살)</t>
-        </is>
-      </c>
-      <c r="B387" t="n">
-        <v>40</v>
-      </c>
-      <c r="C387" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D387" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>知命(00살)</t>
-        </is>
-      </c>
-      <c r="B388" t="n">
-        <v>50</v>
-      </c>
-      <c r="C388" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D388" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>耳順(00살)</t>
-        </is>
-      </c>
-      <c r="B389" t="n">
-        <v>60</v>
-      </c>
-      <c r="C389" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D389" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>換甲(00살)</t>
-        </is>
-      </c>
-      <c r="B390" t="n">
-        <v>61</v>
-      </c>
-      <c r="C390" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D390" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>還甲(00살)</t>
-        </is>
-      </c>
-      <c r="B391" t="n">
-        <v>61</v>
-      </c>
-      <c r="C391" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D391" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>回甲(00살)</t>
-        </is>
-      </c>
-      <c r="B392" t="n">
-        <v>61</v>
-      </c>
-      <c r="C392" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D392" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>古稀(00살)</t>
-        </is>
-      </c>
-      <c r="B393" t="n">
-        <v>70</v>
-      </c>
-      <c r="C393" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D393" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>喜壽(00살)</t>
-        </is>
-      </c>
-      <c r="B394" t="n">
-        <v>77</v>
-      </c>
-      <c r="C394" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D394" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>米壽(00살)</t>
-        </is>
-      </c>
-      <c r="B395" t="n">
-        <v>88</v>
-      </c>
-      <c r="C395" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D395" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>白壽(00살)</t>
-        </is>
-      </c>
-      <c r="B396" t="n">
-        <v>99</v>
-      </c>
-      <c r="C396" t="inlineStr">
-        <is>
-          <t>1주차</t>
-        </is>
-      </c>
-      <c r="D396" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>㉠곡식이나 장작 따위의 더미를 세는 단위 한 가리는 스무 단이다
-장작 한 가리</t>
-        </is>
-      </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>가리</t>
-        </is>
-      </c>
-      <c r="C397" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D397" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>㉠가늘고 짤막하게 쪼갠 토막을 세는 단위 장작 두 개비, 담배 대여섯 개비</t>
-        </is>
-      </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>개비</t>
-        </is>
-      </c>
-      <c r="C398" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D398" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>㉠오이나 가지 따위를 묶어 세는 단위 한 거리는 오이나 가지 오십 개를 이른다
-가지 두 거리</t>
-        </is>
-      </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>거리</t>
-        </is>
-      </c>
-      <c r="C399" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D399" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>㉡탈놀음, 꼭두각시놀음, 굿 따위에서, 장(場)을 세는 단위 
-한 거리 놀다</t>
-        </is>
-      </c>
-      <c r="B400" t="inlineStr">
-        <is>
-          <t>거리</t>
-        </is>
-      </c>
-      <c r="C400" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D400" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>㉠무게의 단위 한 관은 한 근의 열 배로 375kg에 해당 한다
-감자 세 관</t>
-        </is>
-      </c>
-      <c r="B401" t="inlineStr">
-        <is>
-          <t>관</t>
-        </is>
-      </c>
-      <c r="C401" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D401" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>㉠식물, 특히 나무를 세는 단위 
-소나무 2천 그루</t>
-        </is>
-      </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>그루</t>
-        </is>
-      </c>
-      <c r="C402" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D402" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>㉡한 해에 같은 땅에 농사짓는 횟수를 세는 단위 
-두 그루 심는 논농사</t>
-        </is>
-      </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>그루</t>
-        </is>
-      </c>
-      <c r="C403" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D403" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>㉠무게의 단위 한 근은 고기나 한약재의 무게를 잴 때는 600그램에 해당하고, 과일이나 채소 따위의 무게를 잴 때는 한 관의 10분의 1로 375그램에 해당한다 
-쇠고기 한 근</t>
-        </is>
-      </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>근</t>
-        </is>
-      </c>
-      <c r="C404" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D404" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>㉠길이의 단위 한 길은 여덟 자 또는 열 자로 약 24미터 또는 3미터에 해당한다
-천 길</t>
-        </is>
-      </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>길</t>
-        </is>
-      </c>
-      <c r="C405" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D405" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>㉡길이의 단위 한 길은 사람의 키 정도의 길이이다 트럭에 실린 통나무는 굵기는 한 아름이 넘고 길이는 열 길이 넘었다</t>
-        </is>
-      </c>
-      <c r="B406" t="inlineStr">
-        <is>
-          <t>길</t>
-        </is>
-      </c>
-      <c r="C406" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D406" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>㉠달걀 열 개를 묶어 세는 단위 
-달걀 한 꾸러미</t>
-        </is>
-      </c>
-      <c r="B407" t="inlineStr">
-        <is>
-          <t>꾸러미</t>
-        </is>
-      </c>
-      <c r="C407" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D407" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>㉠예전에, 엽전을 세던 단위 한 냥은 한 돈의 열 배이다 
-돈 천 냥, 돈 만 냥을 꾸다</t>
-        </is>
-      </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>냥</t>
-        </is>
-      </c>
-      <c r="C408" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D408" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>㉠납작한 물건을 세는 단위 흔히 돈이나 가마니, 멍석 따위를 셀 때 쓴다
-동전 한 닢</t>
-        </is>
-      </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>닢</t>
-        </is>
-      </c>
-      <c r="C409" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D409" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>㉠물건 열두 개를 묶어 세는 단위 ‘12개’, ‘타(打)’로 순화 
-연필 한 다스</t>
-        </is>
-      </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>다스</t>
-        </is>
-      </c>
-      <c r="C410" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D410" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>㉠짚, 땔나무, 채소 따위의 묶음을 세는 단위 
-볏짚 한 단</t>
-        </is>
-      </c>
-      <c r="B411" t="inlineStr">
-        <is>
-          <t>단</t>
-        </is>
-      </c>
-      <c r="C411" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D411" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>㉠화살 따위와 같이 가늘고 긴 물건을 세는 단위 
-화살 세 대</t>
-        </is>
-      </c>
-      <c r="B412" t="inlineStr">
-        <is>
-          <t>대</t>
-        </is>
-      </c>
-      <c r="C412" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D412" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>㉡이나 갈비를 세는 단위 
-삼촌은 교통사고로 갈비가 세 대나 나갔다</t>
-        </is>
-      </c>
-      <c r="B413" t="inlineStr">
-        <is>
-          <t>대</t>
-        </is>
-      </c>
-      <c r="C413" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D413" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>㉢담배통에 채워 넣는 담배의 분량이나 담배를 피우는 횟수를 세는 단위 
-담배 한 대 먼저 채우고 나서 이야기합시다</t>
-        </is>
-      </c>
-      <c r="B414" t="inlineStr">
-        <is>
-          <t>대</t>
-        </is>
-      </c>
-      <c r="C414" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D414" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>㉣때리는 횟수를 세는 단위 
-회초리로 몇 대 맞을래?</t>
-        </is>
-      </c>
-      <c r="B415" t="inlineStr">
-        <is>
-          <t>대</t>
-        </is>
-      </c>
-      <c r="C415" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D415" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>㉤주사를 놓는 횟수를 세는 단위 
-엉덩이에 주사를 한 대 맞다</t>
-        </is>
-      </c>
-      <c r="B416" t="inlineStr">
-        <is>
-          <t>대</t>
-        </is>
-      </c>
-      <c r="C416" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D416" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>㉠무게의 단위 귀금속이나 한약재 따위의 무게를 잴 때 쓴다 
-한 돈은 한 냥의 10분의 1, 한 푼의 열 배로 375 그램에 해당한다
-금 두 냥 서 돈</t>
-        </is>
-      </c>
-      <c r="B417" t="inlineStr">
-        <is>
-          <t>돈</t>
-        </is>
-      </c>
-      <c r="C417" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D417" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>㉠부피의 단위 곡식, 가루, 액체 따위의 부피를 잴 때 쓴 다 한 되는 한 말의 10분의 1, 한 홉의 열 배로 약 1)8리 터에 해당한다
-쌀 한 되</t>
-        </is>
-      </c>
-      <c r="B418" t="inlineStr">
-        <is>
-          <t>되</t>
-        </is>
-      </c>
-      <c r="C418" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D418" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>㉠곡식이나 물, 술 따위를 되에 담아 그 분량을 세는 단위 
-한 되들이 술병</t>
-        </is>
-      </c>
-      <c r="B419" t="inlineStr">
-        <is>
-          <t>되들이</t>
-        </is>
-      </c>
-      <c r="C419" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D419" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>㉠논, 밭의 넓이의 단위 볍씨 한 되의 모나 씨앗을 심을 만한 넓이로 한 마지기의 10분의 1이다 
-땅은 논 열 마지기와 밭 두 되지기가 고작이었다</t>
-        </is>
-      </c>
-      <c r="B420" t="inlineStr">
-        <is>
-          <t>되지기</t>
-        </is>
-      </c>
-      <c r="C420" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D420" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>㉠ 조기 따위의 물고기를 짚으로 한 줄에 열 마리씩 두 줄로 엮은 것을 세는 단위 
-청어 한 두름</t>
-        </is>
-      </c>
-      <c r="B421" t="inlineStr">
-        <is>
-          <t>두름</t>
-        </is>
-      </c>
-      <c r="C421" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D421" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>㉡고사리 따위의 산나물을 열 모숨 정도로 엮은 것을 세는 단위
-고사리 한 두름</t>
-        </is>
-      </c>
-      <c r="B422" t="inlineStr">
-        <is>
-          <t>두름</t>
-        </is>
-      </c>
-      <c r="C422" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D422" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>㉠실을 꿴 바늘로 한 번 뜬 자국을 세는 단위 
-바느질을 한 땀 한 땀 정성 들여 하다</t>
-        </is>
-      </c>
-      <c r="B423" t="inlineStr">
-        <is>
-          <t>땀</t>
-        </is>
-      </c>
-      <c r="C423" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D423" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>㉠거리의 단위 1리는 약 0393km에 해당한다 
-예전에는 학교까지 오 리쯤 걸어 다녔다</t>
-        </is>
-      </c>
-      <c r="B424" t="inlineStr">
-        <is>
-          <t>리</t>
-        </is>
-      </c>
-      <c r="C424" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D424" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>㉠짐승이나 물고기, 벌레 따위를 세는 단위 
-소 한 마리</t>
-        </is>
-      </c>
-      <c r="B425" t="inlineStr">
-        <is>
-          <t>마리</t>
-        </is>
-      </c>
-      <c r="C425" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D425" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>㉠논밭 넓이의 단위 지방마다 다르나 논은 약 150~300 평, 밭은 약 100평 정도이다
-논 다섯 마지기</t>
-        </is>
-      </c>
-      <c r="B426" t="inlineStr">
-        <is>
-          <t>마지기</t>
-        </is>
-      </c>
-      <c r="C426" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D426" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>㉠두부나 묵 따위를 세는 단위 
-두부 한 모</t>
-        </is>
-      </c>
-      <c r="B427" t="inlineStr">
-        <is>
-          <t>모</t>
-        </is>
-      </c>
-      <c r="C427" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D427" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>㉠액체나 기체를 입 안에 한 번 머금는 분량을 세는 단위 
-물 한 모금, 담배 몇 모금</t>
-        </is>
-      </c>
-      <c r="B428" t="inlineStr">
-        <is>
-          <t>모금</t>
-        </is>
-      </c>
-      <c r="C428" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D428" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>㉠길이의 단위 신발의 크기를 잴 때 쓴다 1문은 약 24cm에 해당한다
-십 문 반짜리 운동화</t>
-        </is>
-      </c>
-      <c r="B429" t="inlineStr">
-        <is>
-          <t>문</t>
-        </is>
-      </c>
-      <c r="C429" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D429" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>㉠짚, 장작, 채소 따위의 작은 묶음을 세는 단위 
-땔감은 아예 말똥, 소똥을 말려 쓰고, 몇 뭇 안 남은 조 짚은 마소를 먹였다</t>
-        </is>
-      </c>
-      <c r="B430" t="inlineStr">
-        <is>
-          <t>뭇</t>
-        </is>
-      </c>
-      <c r="C430" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D430" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>㉡볏단을 세는 단위</t>
-        </is>
-      </c>
-      <c r="B431" t="inlineStr">
-        <is>
-          <t>뭇</t>
-        </is>
-      </c>
-      <c r="C431" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D431" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>㉢생선을 묶어 세는 단위 한 뭇은 생선 열 마리를 이른다 
-삼치 다섯 뭇</t>
-        </is>
-      </c>
-      <c r="B432" t="inlineStr">
-        <is>
-          <t>뭇</t>
-        </is>
-      </c>
-      <c r="C432" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D432" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>㉣미역을 묶어 세는 단위 한 뭇은 미역 열 장을 이른다</t>
-        </is>
-      </c>
-      <c r="B433" t="inlineStr">
-        <is>
-          <t>뭇</t>
-        </is>
-      </c>
-      <c r="C433" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D433" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>하나둘, 한둘</t>
-        </is>
-      </c>
-      <c r="B434" t="inlineStr">
-        <is>
-          <t>1 2</t>
-        </is>
-      </c>
-      <c r="C434" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D434" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>두셋</t>
-        </is>
-      </c>
-      <c r="B435" t="inlineStr">
-        <is>
-          <t>2 3</t>
-        </is>
-      </c>
-      <c r="C435" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D435" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>서너</t>
-        </is>
-      </c>
-      <c r="B436" t="inlineStr">
-        <is>
-          <t>3 4</t>
-        </is>
-      </c>
-      <c r="C436" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D436" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>네댓</t>
-        </is>
-      </c>
-      <c r="B437" t="inlineStr">
-        <is>
-          <t>4 5</t>
-        </is>
-      </c>
-      <c r="C437" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D437" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>네다섯</t>
-        </is>
-      </c>
-      <c r="B438" t="inlineStr">
-        <is>
-          <t>4 5</t>
-        </is>
-      </c>
-      <c r="C438" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D438" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>예닐곱</t>
-        </is>
-      </c>
-      <c r="B439" t="inlineStr">
-        <is>
-          <t>5 6</t>
-        </is>
-      </c>
-      <c r="C439" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D439" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>두서너</t>
-        </is>
-      </c>
-      <c r="B440" t="inlineStr">
-        <is>
-          <t>2 3 4</t>
-        </is>
-      </c>
-      <c r="C440" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D440" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>두서넛</t>
-        </is>
-      </c>
-      <c r="B441" t="inlineStr">
-        <is>
-          <t>2 3 4</t>
-        </is>
-      </c>
-      <c r="C441" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D441" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>너더댓</t>
-        </is>
-      </c>
-      <c r="B442" t="inlineStr">
-        <is>
-          <t>4 5</t>
-        </is>
-      </c>
-      <c r="C442" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D442" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>네다섯</t>
-        </is>
-      </c>
-      <c r="B443" t="inlineStr">
-        <is>
-          <t>4 5</t>
-        </is>
-      </c>
-      <c r="C443" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D443" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>대여섯</t>
-        </is>
-      </c>
-      <c r="B444" t="inlineStr">
-        <is>
-          <t>5 6</t>
-        </is>
-      </c>
-      <c r="C444" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D444" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>대엿</t>
-        </is>
-      </c>
-      <c r="B445" t="inlineStr">
-        <is>
-          <t>5 6</t>
-        </is>
-      </c>
-      <c r="C445" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D445" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>일여덟</t>
-        </is>
-      </c>
-      <c r="B446" t="inlineStr">
-        <is>
-          <t>7 8</t>
-        </is>
-      </c>
-      <c r="C446" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D446" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>열이 조금 넘는 수</t>
-        </is>
-      </c>
-      <c r="B447" t="inlineStr">
-        <is>
-          <t>여남은</t>
-        </is>
-      </c>
-      <c r="C447" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D447" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>엄지(손가락)</t>
-        </is>
-      </c>
-      <c r="B448" t="inlineStr">
-        <is>
-          <t>첫째 손가락</t>
-        </is>
-      </c>
-      <c r="C448" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D448" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>무지(拇指)</t>
-        </is>
-      </c>
-      <c r="B449" t="inlineStr">
-        <is>
-          <t>첫째 손가락</t>
-        </is>
-      </c>
-      <c r="C449" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D449" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>대무지(大拇指)</t>
-        </is>
-      </c>
-      <c r="B450" t="inlineStr">
-        <is>
-          <t>첫째 손가락</t>
-        </is>
-      </c>
-      <c r="C450" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D450" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
-          <t>대지(大旨)</t>
-        </is>
-      </c>
-      <c r="B451" t="inlineStr">
-        <is>
-          <t>첫째 손가락</t>
-        </is>
-      </c>
-      <c r="C451" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D451" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="inlineStr">
-        <is>
-          <t>거지(巨指)</t>
-        </is>
-      </c>
-      <c r="B452" t="inlineStr">
-        <is>
-          <t>첫째 손가락</t>
-        </is>
-      </c>
-      <c r="C452" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D452" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>벽지(擘指)</t>
-        </is>
-      </c>
-      <c r="B453" t="inlineStr">
-        <is>
-          <t>첫째 손가락</t>
-        </is>
-      </c>
-      <c r="C453" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D453" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>검지</t>
-        </is>
-      </c>
-      <c r="B454" t="inlineStr">
-        <is>
-          <t>둘째 손가락</t>
-        </is>
-      </c>
-      <c r="C454" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D454" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>집게손가락</t>
-        </is>
-      </c>
-      <c r="B455" t="inlineStr">
-        <is>
-          <t>둘째 손가락</t>
-        </is>
-      </c>
-      <c r="C455" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D455" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>식지(食指)</t>
-        </is>
-      </c>
-      <c r="B456" t="inlineStr">
-        <is>
-          <t>둘째 손가락</t>
-        </is>
-      </c>
-      <c r="C456" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D456" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>염지(鹽指)</t>
-        </is>
-      </c>
-      <c r="B457" t="inlineStr">
-        <is>
-          <t>둘째 손가락</t>
-        </is>
-      </c>
-      <c r="C457" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D457" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>인지(人指)</t>
-        </is>
-      </c>
-      <c r="B458" t="inlineStr">
-        <is>
-          <t>둘째 손가락</t>
-        </is>
-      </c>
-      <c r="C458" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D458" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>가운뎃손가락</t>
-        </is>
-      </c>
-      <c r="B459" t="inlineStr">
-        <is>
-          <t>셋째 손가락</t>
-        </is>
-      </c>
-      <c r="C459" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D459" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>장지(長指)</t>
-        </is>
-      </c>
-      <c r="B460" t="inlineStr">
-        <is>
-          <t>셋째 손가락</t>
-        </is>
-      </c>
-      <c r="C460" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D460" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>중지(中指)</t>
-        </is>
-      </c>
-      <c r="B461" t="inlineStr">
-        <is>
-          <t>셋째 손가락</t>
-        </is>
-      </c>
-      <c r="C461" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D461" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>장짓가락</t>
-        </is>
-      </c>
-      <c r="B462" t="inlineStr">
-        <is>
-          <t>셋째 손가락</t>
-        </is>
-      </c>
-      <c r="C462" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D462" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>상지(上指)</t>
-        </is>
-      </c>
-      <c r="B463" t="inlineStr">
-        <is>
-          <t>셋째 손가락</t>
-        </is>
-      </c>
-      <c r="C463" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D463" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>약지(藥指)</t>
-        </is>
-      </c>
-      <c r="B464" t="inlineStr">
-        <is>
-          <t>넷째 손가락</t>
-        </is>
-      </c>
-      <c r="C464" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D464" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>약손가락</t>
-        </is>
-      </c>
-      <c r="B465" t="inlineStr">
-        <is>
-          <t>넷째 손가락</t>
-        </is>
-      </c>
-      <c r="C465" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D465" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>무명지(無名指)</t>
-        </is>
-      </c>
-      <c r="B466" t="inlineStr">
-        <is>
-          <t>넷째 손가락</t>
-        </is>
-      </c>
-      <c r="C466" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D466" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>새끼손(가락)</t>
-        </is>
-      </c>
-      <c r="B467" t="inlineStr">
-        <is>
-          <t>다섯째 손가락</t>
-        </is>
-      </c>
-      <c r="C467" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D467" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>소지(小指)</t>
-        </is>
-      </c>
-      <c r="B468" t="inlineStr">
-        <is>
-          <t>다섯째 손가락</t>
-        </is>
-      </c>
-      <c r="C468" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D468" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>계지(季指)</t>
-        </is>
-      </c>
-      <c r="B469" t="inlineStr">
-        <is>
-          <t>다섯째 손가락</t>
-        </is>
-      </c>
-      <c r="C469" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D469" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>수소지(手小指)</t>
-        </is>
-      </c>
-      <c r="B470" t="inlineStr">
-        <is>
-          <t>다섯째 손가락</t>
-        </is>
-      </c>
-      <c r="C470" t="inlineStr">
-        <is>
-          <t>2주차</t>
-        </is>
-      </c>
-      <c r="D470" t="inlineStr">
-        <is>
-          <t>암기자료</t>
-        </is>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>하(고전)</t>
-        </is>
-      </c>
-      <c r="B471" t="inlineStr">
-        <is>
-          <t>높임의 호격조사</t>
-        </is>
-      </c>
-      <c r="C471" t="inlineStr">
-        <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D471" t="inlineStr">
-        <is>
-          <t>고전</t>
-        </is>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>곰(고전)</t>
-        </is>
-      </c>
-      <c r="B472" t="inlineStr">
-        <is>
-          <t>강조 접미사</t>
-        </is>
-      </c>
-      <c r="C472" t="inlineStr">
-        <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D472" t="inlineStr">
-        <is>
-          <t>고전</t>
-        </is>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>샤(고전)</t>
-        </is>
-      </c>
-      <c r="B473" t="inlineStr">
-        <is>
-          <t>주체 높임 선어말 어미</t>
-        </is>
-      </c>
-      <c r="C473" t="inlineStr">
-        <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D473" t="inlineStr">
-        <is>
-          <t>고전</t>
-        </is>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>ㄹ셰라(고전)</t>
-        </is>
-      </c>
-      <c r="B474" t="inlineStr">
-        <is>
-          <t>~할까 두렵다</t>
-        </is>
-      </c>
-      <c r="C474" t="inlineStr">
-        <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D474" t="inlineStr">
-        <is>
-          <t>고전</t>
-        </is>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>즈이(고전)</t>
-        </is>
-      </c>
-      <c r="B475" t="inlineStr">
-        <is>
-          <t>모습이</t>
-        </is>
-      </c>
-      <c r="C475" t="inlineStr">
-        <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D475" t="inlineStr">
-        <is>
-          <t>고전</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>基盤</t>
-        </is>
-      </c>
-      <c r="B476" t="inlineStr">
-        <is>
-          <t>기반</t>
-        </is>
-      </c>
-      <c r="C476" t="inlineStr">
-        <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D476" t="inlineStr">
-        <is>
-          <t>한자어</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>創製</t>
-        </is>
-      </c>
-      <c r="B477" t="inlineStr">
-        <is>
-          <t>창제</t>
-        </is>
-      </c>
-      <c r="C477" t="inlineStr">
-        <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D477" t="inlineStr">
-        <is>
-          <t>한자어</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>具現</t>
-        </is>
-      </c>
-      <c r="B478" t="inlineStr">
-        <is>
-          <t>구현</t>
-        </is>
-      </c>
-      <c r="C478" t="inlineStr">
-        <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D478" t="inlineStr">
-        <is>
-          <t>한자어</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>有利</t>
-        </is>
-      </c>
-      <c r="B479" t="inlineStr">
-        <is>
-          <t>유리</t>
-        </is>
-      </c>
-      <c r="C479" t="inlineStr">
-        <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D479" t="inlineStr">
-        <is>
-          <t>한자어</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>蚌鷸之爭</t>
-        </is>
-      </c>
-      <c r="B480" t="inlineStr">
-        <is>
-          <t>방휼지쟁, 「도요새가 조개와 다투다가 다 같이 어부(漁夫)에게 잡히고 말았다」는 뜻으로, 제3자(第三者)만 이(利)롭게 하는 다툼을 이르는 말</t>
-        </is>
-      </c>
-      <c r="C480" t="inlineStr">
-        <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D480" t="inlineStr">
-        <is>
-          <t>사자성어</t>
-        </is>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>羊頭狗肉</t>
-        </is>
-      </c>
-      <c r="B481" t="inlineStr">
         <is>
           <t>양두구육, 
 1) 「양(羊) 머리를 걸어놓고 개고기를 판다」는 뜻으로,
@@ -11019,266 +8035,266 @@
 3) 겉과 속이 서로 다름</t>
         </is>
       </c>
-      <c r="C481" t="inlineStr">
+      <c r="C346" t="inlineStr">
         <is>
           <t>6일차</t>
         </is>
       </c>
-      <c r="D481" t="inlineStr">
+      <c r="D346" t="inlineStr">
         <is>
           <t>사자성어</t>
         </is>
       </c>
     </row>
-    <row r="482">
-      <c r="A482" t="inlineStr">
+    <row r="347">
+      <c r="A347" t="inlineStr">
         <is>
           <t>綿裏藏針</t>
         </is>
       </c>
-      <c r="B482" t="inlineStr">
+      <c r="B347" t="inlineStr">
         <is>
           <t>면리장침, 「솜 속에 바늘을 감추어 꽂는다」는 뜻으로, 겉으로는 부드러운 듯하나 속으로는 아주 흉악(凶惡)함을 이름</t>
         </is>
       </c>
-      <c r="C482" t="inlineStr">
+      <c r="C347" t="inlineStr">
         <is>
           <t>6일차</t>
         </is>
       </c>
-      <c r="D482" t="inlineStr">
+      <c r="D347" t="inlineStr">
         <is>
           <t>사자성어</t>
         </is>
       </c>
     </row>
-    <row r="483">
-      <c r="A483" t="inlineStr">
+    <row r="348">
+      <c r="A348" t="inlineStr">
         <is>
           <t>마음이나 생각 따위가 잘못 들다</t>
         </is>
       </c>
-      <c r="B483" t="inlineStr">
+      <c r="B348" t="inlineStr">
         <is>
           <t>빗들다</t>
         </is>
       </c>
-      <c r="C483" t="inlineStr">
+      <c r="C348" t="inlineStr">
         <is>
           <t>6일차</t>
         </is>
       </c>
-      <c r="D483" t="inlineStr">
+      <c r="D348" t="inlineStr">
         <is>
           <t>고유어</t>
         </is>
       </c>
     </row>
-    <row r="484">
-      <c r="A484" t="inlineStr">
+    <row r="349">
+      <c r="A349" t="inlineStr">
         <is>
           <t>물건을 벨 때 칼이나 톱이 먹줄대로 나가지 아니 하고 비뚤어지게 잘못 들어가다</t>
         </is>
       </c>
-      <c r="B484" t="inlineStr">
+      <c r="B349" t="inlineStr">
         <is>
           <t>빗먹다</t>
         </is>
       </c>
-      <c r="C484" t="inlineStr">
+      <c r="C349" t="inlineStr">
         <is>
           <t>6일차</t>
         </is>
       </c>
-      <c r="D484" t="inlineStr">
+      <c r="D349" t="inlineStr">
         <is>
           <t>고유어</t>
         </is>
       </c>
     </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
+    <row r="350">
+      <c r="A350" t="inlineStr">
         <is>
           <t>보통의 이치에서 벗어나 막되고 상스럽다</t>
         </is>
       </c>
-      <c r="B485" t="inlineStr">
+      <c r="B350" t="inlineStr">
         <is>
           <t>상없다</t>
         </is>
       </c>
-      <c r="C485" t="inlineStr">
+      <c r="C350" t="inlineStr">
         <is>
           <t>6일차</t>
         </is>
       </c>
-      <c r="D485" t="inlineStr">
+      <c r="D350" t="inlineStr">
         <is>
           <t>고유어</t>
         </is>
       </c>
     </row>
-    <row r="486">
-      <c r="A486" t="inlineStr">
+    <row r="351">
+      <c r="A351" t="inlineStr">
         <is>
           <t>지나치게 치켜세우다</t>
         </is>
       </c>
-      <c r="B486" t="inlineStr">
+      <c r="B351" t="inlineStr">
         <is>
           <t>치살리다</t>
         </is>
       </c>
-      <c r="C486" t="inlineStr">
+      <c r="C351" t="inlineStr">
         <is>
           <t>6일차</t>
         </is>
       </c>
-      <c r="D486" t="inlineStr">
+      <c r="D351" t="inlineStr">
         <is>
           <t>고유어</t>
         </is>
       </c>
     </row>
-    <row r="487">
-      <c r="A487" t="inlineStr">
+    <row r="352">
+      <c r="A352" t="inlineStr">
         <is>
           <t>자세히 모르고 대강 또는 반쯤만 알다</t>
         </is>
       </c>
-      <c r="B487" t="inlineStr">
+      <c r="B352" t="inlineStr">
         <is>
           <t>데알다</t>
         </is>
       </c>
-      <c r="C487" t="inlineStr">
+      <c r="C352" t="inlineStr">
         <is>
           <t>6일차</t>
         </is>
       </c>
-      <c r="D487" t="inlineStr">
+      <c r="D352" t="inlineStr">
         <is>
           <t>고유어</t>
         </is>
       </c>
     </row>
-    <row r="488">
-      <c r="A488" t="inlineStr">
+    <row r="353">
+      <c r="A353" t="inlineStr">
         <is>
           <t>強度</t>
         </is>
       </c>
-      <c r="B488" t="inlineStr">
+      <c r="B353" t="inlineStr">
         <is>
           <t>강도</t>
         </is>
       </c>
-      <c r="C488" t="inlineStr">
+      <c r="C353" t="inlineStr">
         <is>
           <t>6일차</t>
         </is>
       </c>
-      <c r="D488" t="inlineStr">
-        <is>
-          <t>한자어</t>
-        </is>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="inlineStr">
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
         <is>
           <t>統制</t>
         </is>
       </c>
-      <c r="B489" t="inlineStr">
+      <c r="B354" t="inlineStr">
         <is>
           <t>통제</t>
         </is>
       </c>
-      <c r="C489" t="inlineStr">
+      <c r="C354" t="inlineStr">
         <is>
           <t>6일차</t>
         </is>
       </c>
-      <c r="D489" t="inlineStr">
-        <is>
-          <t>한자어</t>
-        </is>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="inlineStr">
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
         <is>
           <t>行間</t>
         </is>
       </c>
-      <c r="B490" t="inlineStr">
+      <c r="B355" t="inlineStr">
         <is>
           <t>행간</t>
         </is>
       </c>
-      <c r="C490" t="inlineStr">
+      <c r="C355" t="inlineStr">
         <is>
           <t>6일차</t>
         </is>
       </c>
-      <c r="D490" t="inlineStr">
-        <is>
-          <t>한자어</t>
-        </is>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="inlineStr">
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
         <is>
           <t>端緖</t>
         </is>
       </c>
-      <c r="B491" t="inlineStr">
+      <c r="B356" t="inlineStr">
         <is>
           <t>단서</t>
         </is>
       </c>
-      <c r="C491" t="inlineStr">
+      <c r="C356" t="inlineStr">
         <is>
           <t>6일차</t>
         </is>
       </c>
-      <c r="D491" t="inlineStr">
-        <is>
-          <t>한자어</t>
-        </is>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="inlineStr">
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
         <is>
           <t>後生可畏</t>
         </is>
       </c>
-      <c r="B492" t="inlineStr">
+      <c r="B357" t="inlineStr">
         <is>
           <t>후생가외, 「젊은 후학(後學)들을 두려워할 만하다」는 뜻으로, 후진(後進)들이 선배(先輩)들보다 젊고 기력(氣力)이 좋아, 학문(學問)을 닦음에 따라 큰 인물(人物)이 될 수 있으므로 가히 두렵다는 말</t>
         </is>
       </c>
-      <c r="C492" t="inlineStr">
+      <c r="C357" t="inlineStr">
         <is>
           <t>6일차</t>
         </is>
       </c>
-      <c r="D492" t="inlineStr">
+      <c r="D357" t="inlineStr">
         <is>
           <t>사자성어</t>
         </is>
       </c>
     </row>
-    <row r="493">
-      <c r="A493" t="inlineStr">
+    <row r="358">
+      <c r="A358" t="inlineStr">
         <is>
           <t>不問曲直</t>
         </is>
       </c>
-      <c r="B493" t="inlineStr">
+      <c r="B358" t="inlineStr">
         <is>
           <t xml:space="preserve">불문곡직, 
 1) 「굽음과 곧음을 묻지 않는다」는 뜻으로,
@@ -11286,24 +8302,24 @@
 3) 잘잘못을 묻지 않고 함부로 행(行)함 </t>
         </is>
       </c>
-      <c r="C493" t="inlineStr">
+      <c r="C358" t="inlineStr">
         <is>
           <t>6일차</t>
         </is>
       </c>
-      <c r="D493" t="inlineStr">
+      <c r="D358" t="inlineStr">
         <is>
           <t>사자성어</t>
         </is>
       </c>
     </row>
-    <row r="494">
-      <c r="A494" t="inlineStr">
+    <row r="359">
+      <c r="A359" t="inlineStr">
         <is>
           <t>道聽塗說</t>
         </is>
       </c>
-      <c r="B494" t="inlineStr">
+      <c r="B359" t="inlineStr">
         <is>
           <t>도청도설, 
 1)「길거리에서 들은 이야기를 곧 그 길에서 다른 사람에게 말한다」는 뜻으로,
@@ -11311,36 +8327,278 @@
 3) 깊이 생각 않고 예사(例事)로 듣고 말함</t>
         </is>
       </c>
-      <c r="C494" t="inlineStr">
+      <c r="C359" t="inlineStr">
         <is>
           <t>6일차</t>
         </is>
       </c>
-      <c r="D494" t="inlineStr">
+      <c r="D359" t="inlineStr">
         <is>
           <t>사자성어</t>
         </is>
       </c>
     </row>
-    <row r="495">
-      <c r="A495" t="inlineStr">
+    <row r="360">
+      <c r="A360" t="inlineStr">
         <is>
           <t>大馬不死</t>
         </is>
       </c>
-      <c r="B495" t="inlineStr">
+      <c r="B360" t="inlineStr">
         <is>
           <t>대마불사, 바둑을 둘 때, 대마는 쉽게 죽지 아니하고 필경 살길이 생겨난다는 말.</t>
         </is>
       </c>
-      <c r="C495" t="inlineStr">
+      <c r="C360" t="inlineStr">
         <is>
           <t>6일차</t>
         </is>
       </c>
-      <c r="D495" t="inlineStr">
+      <c r="D360" t="inlineStr">
         <is>
           <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>毁損</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>훼손</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>7일차</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>埋木</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>매목</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>7일차</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>象嵌</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>상감</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>7일차</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>補板</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>보판</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>7일차</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>拈華微笑</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>염화미소, 「꽃을 집어 들고 웃음을 띠다.」란 뜻으로, 말로 하지 않고 마음에서 마음으로 전(傳)하는 일을 이르는 말. 불교(佛敎)에서 이심전심(以心傳心)의 뜻으로 쓰이는 말.</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>7일차</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>苦盡甘來</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>고진감래, 「쓴 것이 다하면 단 것이 온다.」는 뜻으로, 고생(苦生) 끝에 낙이 온다라는 말.</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>7일차</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>目不識丁</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>목불식정, 「고무래를 보고도 그것이 고무래 정(丁)자인 줄 모른다.」는 뜻으로, 글자를 전혀 모름. 또는 그러한 사람을 비유(比喩ㆍ譬喩)해 이르는 말. 낫 놓고 기역자도 모른다. 일자무식을 이르는 말.</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>7일차</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>사자성어</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>現實</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>현실</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>7일차</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>野薄</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>야박</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>7일차</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>根性</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>근성</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>7일차</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>採用</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>채용</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>7일차</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>한자어</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/국어_복습_속담제거.xlsx
+++ b/학습자료/단답형/국어_복습_속담제거.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D371"/>
+  <dimension ref="A1:D462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -654,7 +654,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -984,7 +984,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -3889,7 +3889,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -4885,7 +4885,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -4951,7 +4951,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -4973,7 +4973,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -5787,7 +5787,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -6007,7 +6007,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -6975,7 +6975,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -6997,7 +6997,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -7085,7 +7085,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -7107,7 +7107,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -7307,7 +7307,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -7373,7 +7373,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -7419,7 +7419,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -7466,7 +7466,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -7488,7 +7488,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -7510,7 +7510,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -7532,7 +7532,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -7554,7 +7554,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -7576,7 +7576,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -7598,7 +7598,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -7709,7 +7709,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -7731,7 +7731,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -8017,7 +8017,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -8042,7 +8042,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -8284,7 +8284,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -8309,7 +8309,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -8334,7 +8334,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -8356,7 +8356,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -8466,7 +8466,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -8488,7 +8488,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -8510,7 +8510,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -8597,6 +8597,2008 @@
         </is>
       </c>
       <c r="D371" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>舌</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>혀 설</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>口舌數</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>구설수</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>活</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>살 활</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>活力</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>활력</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>活路</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>활로</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>復活</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>부활</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>話</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>말할 화, 이야기 화</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>對話</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>대화</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>童話</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>동화</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>實話</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>실화</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>共</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>함께 공</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>共感</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>공감</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>公共</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>공공</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>公共企業</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>공공기업</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>共同</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>공동</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>共倒同亡</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>공도동망, 「넘어져도 같이 넘어지고 망(亡)하여도 같이 망(亡)한다.」는 뜻으로, 운명(運命)을 같이 하는 것.</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>選</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>뽑을 선</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>選擧</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>선거</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>選手</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>선수</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>選擇</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>선택</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>言約</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>언약</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>言論</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>언론</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>格言</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>격언</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>言語道斷</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>언어도단, 「말할 길이 끊어졌다.」는 뜻으로, 곧, 너무나 엄청나거나 기가 막혀서, 말로써 나타낼 수가 없음.</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>言中有骨</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>언중유골, 「말속에 뼈가 있다.」는 뜻으로, 예사(例事)로운 표현(表現) 속에 만만치 않은 뜻이 들어 있음.</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>話頭</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>화두</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>通話</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>통화</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>話題</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>화제</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>通貨</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>통화</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>貨</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>재물 화</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>財貨</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>재화</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>貨幣</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>화폐</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>貨物</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>화물</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>正義</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>정의</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>正直</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>정직</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>政</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>정치 정, 다스릴 정</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>政治</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>정치</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>政府</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>정부</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>政派</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>정파</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>善政</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>선정</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>定</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>정할 정</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>斷定</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>단정</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>安定</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>안정</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>規定</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>규정</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>會者定離</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>회자정리</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>規定</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>규정</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>構造</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>구조</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>充分</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>충분</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>現象</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>현상</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>造作</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>조작</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>發覺</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>발각</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>濫用</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>남용</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>濫</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>넘칠 남</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>事件</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>사건</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>遺憾</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>유감</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>吉兆</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>길조</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>凶兆</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>흉조</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>亡兆</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>망조</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>兆民有和</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>조민유화, 국민(國民)의 화합(和合)과 나아가 인류(人類)의 화합(和合)을 지향(志向)한다는 뜻을 나타냄.</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>挑</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>돋울 도, 끌어낼 도</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>挑發</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>도발</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>挑戰</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>도전</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>挑戰者</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>도전자</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>逃</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>도망할 도</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>逃亡</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>도망</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>逃走</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>도주</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>逃避</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>도피</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>避</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>피할 피</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>不可避</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>불가피</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>回避</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>회피</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>走馬看山</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>주마간산</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>支</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>지탱할 지</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>支持</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>지지</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>支配</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>지배</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>支給</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>지급</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>給與</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>그병</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>齒亡脣亦支</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>치망순역지, 「이가 없으면 잇몸으로 산다.」는 속담(俗談)의 한역(漢譯)으로, 있던 것이 없어져서 불편(不便)하더라도 없는 대로 참고 살아간다는 말.</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>默</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>잠잠할 묵, 고요할 묵</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>沈默</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>침묵</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>默認</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>묵인</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>默殺</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>묵살</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>默念</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>묵념</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>默默不答</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>묵묵부답</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>盟</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>맹세 맹</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>同盟</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>동맹</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>盟誓</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>맹세</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>盟邦</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>맹방</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>金石盟約</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>금석맹약, 쇠와 돌같이 굳게 맹세(盟誓)하여 맺은 약속(約束).</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>誓約</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>서약</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>誓約書</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>서약서</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>誓言</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>서언</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>8일차</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
         <is>
           <t>한자어</t>
         </is>

--- a/학습자료/단답형/국어_복습_속담제거.xlsx
+++ b/학습자료/단답형/국어_복습_속담제거.xlsx
@@ -10260,7 +10260,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>그병</t>
+          <t>급여</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">

--- a/학습자료/단답형/국어_복습_속담제거.xlsx
+++ b/학습자료/단답형/국어_복습_속담제거.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D462"/>
+  <dimension ref="A1:C490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,11 +446,6 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>날짜</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>구분</t>
         </is>
       </c>
@@ -468,11 +463,6 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -490,11 +480,6 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -512,11 +497,6 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -535,12 +515,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>고유어</t>
+          <t>의미</t>
         </is>
       </c>
     </row>
@@ -558,12 +533,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>고유어</t>
+          <t>의미</t>
         </is>
       </c>
     </row>
@@ -581,12 +551,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>고유어</t>
+          <t>의미</t>
         </is>
       </c>
     </row>
@@ -604,12 +569,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>고유어</t>
+          <t>의미</t>
         </is>
       </c>
     </row>
@@ -627,12 +587,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>고유어</t>
+          <t>의미</t>
         </is>
       </c>
     </row>
@@ -649,11 +604,6 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -671,11 +621,6 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -693,11 +638,6 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -715,11 +655,6 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -737,11 +672,6 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -759,11 +689,6 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -781,11 +706,6 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -803,11 +723,6 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -825,11 +740,6 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -847,11 +757,6 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -869,11 +774,6 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -891,11 +791,6 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -913,11 +808,6 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -935,11 +825,6 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -957,11 +842,6 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -979,11 +859,6 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1일차</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1001,11 +876,6 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2일차</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1023,11 +893,6 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2일차</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1045,11 +910,6 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2일차</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1067,11 +927,6 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2일차</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1089,11 +944,6 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2일차</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1111,11 +961,6 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1133,11 +978,6 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1155,11 +995,6 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -1177,11 +1012,6 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1199,11 +1029,6 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1221,11 +1046,6 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1243,11 +1063,6 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1265,11 +1080,6 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1287,11 +1097,6 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1309,11 +1114,6 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1331,11 +1131,6 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1353,11 +1148,6 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1375,11 +1165,6 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1397,11 +1182,6 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1419,11 +1199,6 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1441,11 +1216,6 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1463,11 +1233,6 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1485,11 +1250,6 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1507,11 +1267,6 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1529,11 +1284,6 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1551,11 +1301,6 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1573,11 +1318,6 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1595,11 +1335,6 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1617,11 +1352,6 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1639,11 +1369,6 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1661,11 +1386,6 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1683,11 +1403,6 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1705,11 +1420,6 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1727,11 +1437,6 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1749,11 +1454,6 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1771,11 +1471,6 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1793,11 +1488,6 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1815,11 +1505,6 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1837,11 +1522,6 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1859,11 +1539,6 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1881,11 +1556,6 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1903,11 +1573,6 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1925,11 +1590,6 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1947,11 +1607,6 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1969,11 +1624,6 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -1991,11 +1641,6 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2013,11 +1658,6 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2035,11 +1675,6 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2057,11 +1692,6 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2079,11 +1709,6 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2101,11 +1726,6 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2123,11 +1743,6 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2145,11 +1760,6 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2167,11 +1777,6 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2189,11 +1794,6 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2211,11 +1811,6 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2233,11 +1828,6 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2255,11 +1845,6 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2277,11 +1862,6 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2299,11 +1879,6 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2321,11 +1896,6 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2343,11 +1913,6 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2365,11 +1930,6 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2387,11 +1947,6 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2409,11 +1964,6 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2431,11 +1981,6 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2453,11 +1998,6 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2475,11 +2015,6 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2497,11 +2032,6 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2519,11 +2049,6 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2541,11 +2066,6 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2563,11 +2083,6 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2585,11 +2100,6 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2607,11 +2117,6 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2629,11 +2134,6 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2651,11 +2151,6 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2673,11 +2168,6 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2695,11 +2185,6 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2717,11 +2202,6 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2739,11 +2219,6 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2761,11 +2236,6 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2783,11 +2253,6 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2805,11 +2270,6 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2827,11 +2287,6 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2849,11 +2304,6 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2871,11 +2321,6 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2893,11 +2338,6 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2915,11 +2355,6 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2937,11 +2372,6 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2959,11 +2389,6 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -2981,11 +2406,6 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3003,11 +2423,6 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3025,11 +2440,6 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3047,11 +2457,6 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3069,11 +2474,6 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3091,11 +2491,6 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3113,11 +2508,6 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3135,11 +2525,6 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3157,11 +2542,6 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3179,11 +2559,6 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3201,11 +2576,6 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3223,11 +2593,6 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3245,11 +2610,6 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3267,11 +2627,6 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3289,11 +2644,6 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3311,11 +2661,6 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3333,11 +2678,6 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3355,11 +2695,6 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3377,11 +2712,6 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3399,11 +2729,6 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3421,11 +2746,6 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3443,11 +2763,6 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3465,11 +2780,6 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3487,11 +2797,6 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3509,11 +2814,6 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3531,11 +2831,6 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3553,11 +2848,6 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3575,11 +2865,6 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3597,11 +2882,6 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3619,11 +2899,6 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3641,11 +2916,6 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3663,11 +2933,6 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3685,11 +2950,6 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3707,11 +2967,6 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -3729,11 +2984,6 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3751,11 +3001,6 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3774,11 +3019,6 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3796,12 +3036,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>고유어</t>
+          <t>의미</t>
         </is>
       </c>
     </row>
@@ -3818,12 +3053,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>고유어</t>
+          <t>의미</t>
         </is>
       </c>
     </row>
@@ -3840,12 +3070,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>고유어</t>
+          <t>의미</t>
         </is>
       </c>
     </row>
@@ -3862,12 +3087,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>고유어</t>
+          <t>의미</t>
         </is>
       </c>
     </row>
@@ -3884,11 +3104,6 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3906,11 +3121,6 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3928,11 +3138,6 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3950,11 +3155,6 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3972,11 +3172,6 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -3994,11 +3189,6 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4016,11 +3206,6 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4038,11 +3223,6 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4060,11 +3240,6 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4082,11 +3257,6 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4104,11 +3274,6 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4127,12 +3292,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>고유어</t>
+          <t>의미</t>
         </is>
       </c>
     </row>
@@ -4149,12 +3309,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>고유어</t>
+          <t>의미</t>
         </is>
       </c>
     </row>
@@ -4171,12 +3326,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>고유어</t>
+          <t>의미</t>
         </is>
       </c>
     </row>
@@ -4194,12 +3344,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>고유어</t>
+          <t>의미</t>
         </is>
       </c>
     </row>
@@ -4216,11 +3361,6 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -4238,11 +3378,6 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -4260,11 +3395,6 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -4282,11 +3412,6 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -4304,11 +3429,6 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -4326,11 +3446,6 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -4348,11 +3463,6 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -4370,11 +3480,6 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -4392,11 +3497,6 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -4414,11 +3514,6 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -4436,11 +3531,6 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -4458,11 +3548,6 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -4480,11 +3565,6 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -4502,11 +3582,6 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -4524,11 +3599,6 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -4544,11 +3614,6 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
           <t>사이시옷</t>
         </is>
       </c>
@@ -4564,11 +3629,6 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
           <t>사이시옷</t>
         </is>
       </c>
@@ -4584,11 +3644,6 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
           <t>사이시옷</t>
         </is>
       </c>
@@ -4604,11 +3659,6 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
           <t>사이시옷</t>
         </is>
       </c>
@@ -4624,11 +3674,6 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
           <t>사이시옷</t>
         </is>
       </c>
@@ -4644,11 +3689,6 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
           <t>사이시옷</t>
         </is>
       </c>
@@ -4664,11 +3704,6 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
           <t>사이시옷</t>
         </is>
       </c>
@@ -4684,11 +3719,6 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
           <t>사이시옷</t>
         </is>
       </c>
@@ -4704,11 +3734,6 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
           <t>사이시옷</t>
         </is>
       </c>
@@ -4726,11 +3751,6 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -4748,11 +3768,6 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -4770,11 +3785,6 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -4792,11 +3802,6 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -4814,11 +3819,6 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -4836,11 +3836,6 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -4858,11 +3853,6 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
           <t>발음</t>
         </is>
       </c>
@@ -4880,11 +3870,6 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4902,11 +3887,6 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4924,11 +3904,6 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4946,11 +3921,6 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4968,11 +3938,6 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -4990,11 +3955,6 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -5012,11 +3972,6 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -5034,11 +3989,6 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -5056,11 +4006,6 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -5078,11 +4023,6 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -5100,11 +4040,6 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -5122,11 +4057,6 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -5144,11 +4074,6 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -5166,11 +4091,6 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -5188,11 +4108,6 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -5210,11 +4125,6 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -5232,11 +4142,6 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -5254,11 +4159,6 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -5276,11 +4176,6 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -5298,11 +4193,6 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -5320,11 +4210,6 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -5342,11 +4227,6 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -5364,11 +4244,6 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -5386,11 +4261,6 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -5408,11 +4278,6 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -5430,11 +4295,6 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -5452,11 +4312,6 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -5474,11 +4329,6 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -5496,11 +4346,6 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>4일차</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
           <t>복합어</t>
         </is>
       </c>
@@ -5518,11 +4363,6 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5540,11 +4380,6 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5562,11 +4397,6 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5584,11 +4414,6 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5606,11 +4431,6 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5628,11 +4448,6 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5650,11 +4465,6 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5672,11 +4482,6 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5694,11 +4499,6 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5716,11 +4516,6 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5738,11 +4533,6 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5760,11 +4550,6 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5782,11 +4567,6 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5804,11 +4584,6 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5826,11 +4601,6 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5848,11 +4618,6 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5870,11 +4635,6 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5892,11 +4652,6 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5914,11 +4669,6 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5936,11 +4686,6 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5958,11 +4703,6 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -5980,11 +4720,6 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6002,11 +4737,6 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6024,11 +4754,6 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6046,11 +4771,6 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6068,11 +4788,6 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6090,11 +4805,6 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6112,11 +4822,6 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6134,11 +4839,6 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6156,11 +4856,6 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6178,11 +4873,6 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6200,11 +4890,6 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6222,11 +4907,6 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6244,11 +4924,6 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6266,11 +4941,6 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6288,11 +4958,6 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6310,11 +4975,6 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6332,11 +4992,6 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6354,11 +5009,6 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6376,11 +5026,6 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6398,11 +5043,6 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6420,11 +5060,6 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6442,11 +5077,6 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6464,11 +5094,6 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6486,11 +5111,6 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6508,11 +5128,6 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6530,11 +5145,6 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6552,11 +5162,6 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6574,11 +5179,6 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6596,11 +5196,6 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6618,11 +5213,6 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6640,11 +5230,6 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6662,11 +5247,6 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6684,11 +5264,6 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6706,11 +5281,6 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6728,11 +5298,6 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6750,11 +5315,6 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6772,11 +5332,6 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6794,11 +5349,6 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6816,11 +5366,6 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6838,11 +5383,6 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6860,11 +5400,6 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6882,11 +5417,6 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6904,11 +5434,6 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6926,11 +5451,6 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6948,11 +5468,6 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D297" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6970,11 +5485,6 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D298" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -6992,11 +5502,6 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -7014,11 +5519,6 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -7036,11 +5536,6 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -7058,11 +5553,6 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -7080,11 +5570,6 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -7102,11 +5587,6 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D304" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -7124,11 +5604,6 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D305" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -7146,11 +5621,6 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D306" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -7168,11 +5638,6 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -7190,11 +5655,6 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -7212,11 +5672,6 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -7234,11 +5689,6 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -7256,11 +5706,6 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D311" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -7277,11 +5722,6 @@
         </is>
       </c>
       <c r="C312" t="inlineStr">
-        <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D312" t="inlineStr">
         <is>
           <t>한자어</t>
         </is>
@@ -7302,11 +5742,6 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D313" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -7324,11 +5759,6 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D314" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -7346,11 +5776,6 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D315" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -7368,11 +5793,6 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D316" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -7389,11 +5809,6 @@
         </is>
       </c>
       <c r="C317" t="inlineStr">
-        <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D317" t="inlineStr">
         <is>
           <t>한자어</t>
         </is>
@@ -7414,11 +5829,6 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D318" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -7435,11 +5845,6 @@
         </is>
       </c>
       <c r="C319" t="inlineStr">
-        <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D319" t="inlineStr">
         <is>
           <t>한자어</t>
         </is>
@@ -7461,11 +5866,6 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D320" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -7483,11 +5883,6 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D321" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -7505,11 +5900,6 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D322" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -7527,11 +5917,6 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D323" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -7549,11 +5934,6 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D324" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -7571,11 +5951,6 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D325" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -7593,11 +5968,6 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D326" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -7615,12 +5985,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D327" t="inlineStr">
-        <is>
-          <t>고전</t>
+          <t>의미</t>
         </is>
       </c>
     </row>
@@ -7637,12 +6002,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D328" t="inlineStr">
-        <is>
-          <t>고전</t>
+          <t>의미</t>
         </is>
       </c>
     </row>
@@ -7659,12 +6019,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D329" t="inlineStr">
-        <is>
-          <t>고전</t>
+          <t>의미</t>
         </is>
       </c>
     </row>
@@ -7681,12 +6036,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>고전</t>
+          <t>의미</t>
         </is>
       </c>
     </row>
@@ -7704,11 +6054,6 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D331" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -7726,11 +6071,6 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D332" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -7748,11 +6088,6 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D333" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -7770,11 +6105,6 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D334" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -7792,11 +6122,6 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D335" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -7814,12 +6139,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>고전</t>
+          <t>의미</t>
         </is>
       </c>
     </row>
@@ -7836,12 +6156,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>고전</t>
+          <t>의미</t>
         </is>
       </c>
     </row>
@@ -7858,12 +6173,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>고전</t>
+          <t>의미</t>
         </is>
       </c>
     </row>
@@ -7880,12 +6190,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>고전</t>
+          <t>의미</t>
         </is>
       </c>
     </row>
@@ -7902,12 +6207,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>5일차</t>
-        </is>
-      </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>고전</t>
+          <t>의미</t>
         </is>
       </c>
     </row>
@@ -7924,11 +6224,6 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D341" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -7946,11 +6241,6 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D342" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -7968,11 +6258,6 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D343" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -7990,11 +6275,6 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8011,11 +6291,6 @@
         </is>
       </c>
       <c r="C345" t="inlineStr">
-        <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr">
         <is>
           <t>한자어</t>
         </is>
@@ -8037,11 +6312,6 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8059,11 +6329,6 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D347" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8081,12 +6346,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr">
-        <is>
-          <t>고유어</t>
+          <t>의미</t>
         </is>
       </c>
     </row>
@@ -8103,12 +6363,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D349" t="inlineStr">
-        <is>
-          <t>고유어</t>
+          <t>의미</t>
         </is>
       </c>
     </row>
@@ -8125,12 +6380,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D350" t="inlineStr">
-        <is>
-          <t>고유어</t>
+          <t>의미</t>
         </is>
       </c>
     </row>
@@ -8147,12 +6397,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>고유어</t>
+          <t>의미</t>
         </is>
       </c>
     </row>
@@ -8169,12 +6414,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D352" t="inlineStr">
-        <is>
-          <t>고유어</t>
+          <t>의미</t>
         </is>
       </c>
     </row>
@@ -8191,11 +6431,6 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D353" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8213,11 +6448,6 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D354" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8235,11 +6465,6 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D355" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8257,11 +6482,6 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D356" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8278,11 +6498,6 @@
         </is>
       </c>
       <c r="C357" t="inlineStr">
-        <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D357" t="inlineStr">
         <is>
           <t>한자어</t>
         </is>
@@ -8304,11 +6519,6 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D358" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8329,11 +6539,6 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D359" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8351,11 +6556,6 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>6일차</t>
-        </is>
-      </c>
-      <c r="D360" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8373,11 +6573,6 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>7일차</t>
-        </is>
-      </c>
-      <c r="D361" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8395,11 +6590,6 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>7일차</t>
-        </is>
-      </c>
-      <c r="D362" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8417,11 +6607,6 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>7일차</t>
-        </is>
-      </c>
-      <c r="D363" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8439,11 +6624,6 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>7일차</t>
-        </is>
-      </c>
-      <c r="D364" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8461,11 +6641,6 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>7일차</t>
-        </is>
-      </c>
-      <c r="D365" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8483,11 +6658,6 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>7일차</t>
-        </is>
-      </c>
-      <c r="D366" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8505,11 +6675,6 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>7일차</t>
-        </is>
-      </c>
-      <c r="D367" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8527,11 +6692,6 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>7일차</t>
-        </is>
-      </c>
-      <c r="D368" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8549,11 +6709,6 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>7일차</t>
-        </is>
-      </c>
-      <c r="D369" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8571,11 +6726,6 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>7일차</t>
-        </is>
-      </c>
-      <c r="D370" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8593,11 +6743,6 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>7일차</t>
-        </is>
-      </c>
-      <c r="D371" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8615,11 +6760,6 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D372" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8637,11 +6777,6 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D373" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8659,11 +6794,6 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D374" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8681,11 +6811,6 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D375" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8703,11 +6828,6 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D376" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8725,11 +6845,6 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D377" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8747,11 +6862,6 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D378" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8769,11 +6879,6 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D379" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8791,11 +6896,6 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D380" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8813,11 +6913,6 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D381" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8835,11 +6930,6 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D382" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8857,11 +6947,6 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D383" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8879,11 +6964,6 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D384" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8901,11 +6981,6 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D385" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8923,11 +6998,6 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D386" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8945,11 +7015,6 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D387" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8967,11 +7032,6 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D388" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -8989,11 +7049,6 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D389" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9011,11 +7066,6 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D390" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9033,11 +7083,6 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D391" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9055,11 +7100,6 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D392" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9077,11 +7117,6 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D393" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9099,11 +7134,6 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D394" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9121,11 +7151,6 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D395" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9143,11 +7168,6 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D396" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9165,11 +7185,6 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D397" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9187,11 +7202,6 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D398" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9209,11 +7219,6 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D399" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9231,11 +7236,6 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D400" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9253,11 +7253,6 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D401" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9275,11 +7270,6 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D402" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9297,11 +7287,6 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D403" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9319,11 +7304,6 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D404" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9341,11 +7321,6 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D405" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9363,11 +7338,6 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D406" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9385,11 +7355,6 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D407" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9407,11 +7372,6 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D408" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9429,11 +7389,6 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D409" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9451,11 +7406,6 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D410" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9473,11 +7423,6 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D411" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9495,11 +7440,6 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D412" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9517,11 +7457,6 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D413" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9539,11 +7474,6 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D414" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9561,11 +7491,6 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D415" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9583,11 +7508,6 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D416" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9605,11 +7525,6 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D417" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9627,11 +7542,6 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D418" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9649,11 +7559,6 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D419" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9671,11 +7576,6 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D420" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9693,11 +7593,6 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D421" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9715,11 +7610,6 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D422" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9737,11 +7627,6 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D423" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9759,11 +7644,6 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D424" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9781,11 +7661,6 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D425" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9803,11 +7678,6 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D426" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9825,11 +7695,6 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D427" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9847,11 +7712,6 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D428" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9869,11 +7729,6 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D429" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9891,11 +7746,6 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D430" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9913,11 +7763,6 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D431" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9935,11 +7780,6 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D432" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9957,11 +7797,6 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D433" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -9979,11 +7814,6 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D434" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -10001,11 +7831,6 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D435" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -10023,11 +7848,6 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D436" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -10045,11 +7865,6 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D437" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -10067,11 +7882,6 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D438" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -10089,11 +7899,6 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D439" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -10111,11 +7916,6 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D440" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -10133,11 +7933,6 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D441" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -10155,11 +7950,6 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D442" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -10177,11 +7967,6 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D443" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -10199,11 +7984,6 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D444" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -10221,11 +8001,6 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D445" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -10243,11 +8018,6 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D446" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -10265,11 +8035,6 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D447" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -10287,11 +8052,6 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D448" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -10309,11 +8069,6 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D449" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -10331,11 +8086,6 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D450" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -10353,11 +8103,6 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D451" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -10375,11 +8120,6 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D452" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -10397,11 +8137,6 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D453" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -10419,11 +8154,6 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D454" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -10441,11 +8171,6 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D455" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -10463,11 +8188,6 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D456" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -10485,11 +8205,6 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D457" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -10507,11 +8222,6 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D458" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -10529,11 +8239,6 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D459" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -10551,11 +8256,6 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D460" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -10573,11 +8273,6 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D461" t="inlineStr">
-        <is>
           <t>한자어</t>
         </is>
       </c>
@@ -10595,10 +8290,482 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>8일차</t>
-        </is>
-      </c>
-      <c r="D462" t="inlineStr">
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>恣意性</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>자의성</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>地自體</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>지자체</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>放恣</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>방자</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>仔細</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>자세</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>姿態</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>자태</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>國粹主義</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>국수주의, 자기(自己) 나라의 고유(固有) 전통(傳統) 문화(文化)만이 우수(優秀)하다고 믿고 다른 나라의 문물(文物)을 지나치게 배척(排斥)하는 태도(態度)나 입장(立場).</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>衛正斥邪</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>위정척사, 조선(朝鮮) 시대(時代) 후기(後期)에, 정학(正學), 정도(正道)로서의 주자학(朱子學)을 지키고, 사학(邪學), 사도(邪道)로서의 천주교(天主敎)를 물리치려던 주장(主張).</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>嘗糞之徒</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>상분지도, 「똥도 핥을 놈」이라는 뜻으로, 남에게 아첨(阿諂)하여 부끄러운 짓도 꺼려하지 않는 사람을 이르는 말.</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>橘化爲枳</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>귤화위지, 「강남(江南)의 귤을 강북(江北)에 심으면 탱자가 된다.」는 뜻으로, 사람도 환경(環境)에 따라 기질(氣質)이 변한다는 말.</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>間髮</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>간발</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>比肩</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>비견</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>琴瑟相和</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>금슬상화, 「거문고와 비파(琵琶) 소리가 조화(調和)를 이룬다.」는 뜻으로, 부부(夫婦) 사이가 다정(多情)하고 화목(和睦)함을 이르는 말.</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>女必從夫</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>여필종부, 아내는 반드시 남편(男便)의 뜻을 좇아야 한다는 말.</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>談笑自若</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>담소자약, 「태연(泰然)하게 담소(談笑)를 즐긴다.」는 뜻으로, 위험(危險)이나 곤란(困難)에 직면(直面)해 걱정과 근심이 있을 때라도 변(變)함없이 평상시(平常時)와 같은 태도(態度)를 가짐.</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>男負女戴</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>남부여대, 「남자(男子)는 짐을 따위에 지고, 여자(女子)는 짐을 머리에 인다.」는 뜻으로, 가난한 사람이나 재난(災難)을 당(當)한 사람들이 살 곳을 찾아 이리저리 떠돌아다니는 것을 이르는 말.</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>武陵桃源</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>무릉도원, 이 세상(世上)을 떠난 별천지(別天地)를 이르는 말.</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>安分知足</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>안분지족, 자기(自己) 분수(分數)에 만족(滿足)하여 다른 데 마음을 두지 아니함.</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>簞瓢陋巷</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>단표누항, 「도시락과 표주박과 누추(陋醜)한 거리」라는 뜻으로, 소박(素朴)한 시골 생활(生活)을 비유(比喩ㆍ譬喩)해 이르는 말.</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>風月主人</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>풍월주인, 맑은 바람과 밝은 달 등(等)의 자연(自然)을 즐기는 사람을 이르는 말.</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>마음을 높고 여유 있게 지내다</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>오금을 펴다</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>의미</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>(사람이) 직접 말을 하지 않고 둘러서 말을 하여 짐작하게 하다</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>변죽을 울리다</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>의미</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>(사람이) 그날 장사, 또는 영업 시작 후 처음으로 물건을 팔다</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>마수를 걸다</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>의미</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>1. 민속 땅, 돌, 나무 따위를 잘못 건드려 지신(地神)을 화나게 하여 재앙을 받는 일. 또는 그 재앙.
+2. 건드려서는 안 될 것을 공연히 건드려서 스스로 걱정이나 해를 입음. 또는 그 걱정이나 피해를 비유적으로 이르는 말.</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>동티</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>의미</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>괴롭거나 어려운 상황을 벗어나느라고 진땀을 빼거나, 그것에 거의 질려 버리다.</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>학을 떼다</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>의미</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>沈滯</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>침체</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>萎縮</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>위축</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>且置</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>차치</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>防疫</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>방역</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
         <is>
           <t>한자어</t>
         </is>

--- a/학습자료/단답형/국어_복습_속담제거.xlsx
+++ b/학습자료/단답형/국어_복습_속담제거.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C490"/>
+  <dimension ref="A1:C496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5616,7 +5616,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>첩경, 지름길 멀리 돌지 않고 가깝게 질러 통(通)하는 길</t>
+          <t>첩경</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -8771,6 +8771,112 @@
         </is>
       </c>
     </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>孤孑單身</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>고혈단신, 혈육(血肉)이 없는 외로운 신세(身世).</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>磨杵作針</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>마저작침, 아무리 어려운 일이라도 꾸준히 노력하면 이룰 수 있다는 뜻.</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>磨斧作針</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>마부작침, (=마저작침)</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>百尺竿頭</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>백척간두, 「백 자나 되는 높은 장대 위에 올라섰다.」는 뜻으로, 위태(危殆)로움이 극도(極度)에 달함.</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>輾轉反側</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>전전반측, 1. 「이리 뒤척 저리 뒤척 한다.」는 뜻으로,
+2. 걱정거리로 마음이 괴로워 잠을 이루지 못함을 이르는 말.
+3. 원래(原來)는 「미인(美人)을 사모(思慕)하여 잠을 이루지 못함.」을 이르는 표현(表現)임.</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>錦衣夜行</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>금의야행, 1. 「비단옷(緋緞-)을 입고 밤길을 간다.」는 뜻으로,
+2. 아무 보람없는 행동(行動)을 비유(比喩ㆍ譬喩)하여 이르는 말.
+3. 또는 입신출세(立身出世)하여 고향(故鄕)으로 돌아가지 않음을 이르는 말.</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>한자어</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
